--- a/docs/Sprint_Planning_Document_v2 (2).xlsx
+++ b/docs/Sprint_Planning_Document_v2 (2).xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Introduction"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="153">
   <si>
     <t>Project</t>
   </si>
@@ -262,9 +262,6 @@
   </si>
   <si>
     <t>Define system variable conventions and naming standards</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Book Management System</t>
@@ -481,7 +478,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -496,7 +493,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -543,6 +540,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color rgb="FFffffff"/>
       <name val="Arial"/>
@@ -550,27 +553,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -582,21 +585,21 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
@@ -604,7 +607,7 @@
       <b/>
       <i/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
@@ -616,7 +619,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -624,7 +627,7 @@
       <b/>
       <i/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -637,12 +640,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -686,6 +683,13 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFc6c6c6"/>
       </left>
@@ -701,13 +705,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -1097,6 +1094,189 @@
   </cellStyleXfs>
   <cellXfs count="90">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="5" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="12" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="16" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="13" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="17" applyBorder="1" fontId="6" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="6" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="18" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="6" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="19" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="19" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="21" applyBorder="1" fontId="6" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="6" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="23" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="21" applyBorder="1" fontId="6" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="22" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="22" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="24" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="25" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="26" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
@@ -1106,262 +1286,79 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="9" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="10" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="10" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="27" applyBorder="1" fontId="11" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="25" applyBorder="1" fontId="11" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="28" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="12" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="14" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="12" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="14" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="15" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="16" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="13" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="17" applyBorder="1" fontId="5" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="16" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="13" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="18" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="19" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="19" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="21" applyBorder="1" fontId="5" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="5" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="23" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="21" applyBorder="1" fontId="5" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="22" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="22" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="24" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="25" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="26" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="9" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="9" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="27" applyBorder="1" fontId="10" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="25" applyBorder="1" fontId="10" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="28" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="11" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="14" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="15" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="12" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="16" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1688,13 +1685,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="64" width="36.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="89" width="36.71928571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="64" width="114.86214285714286" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="64" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="64" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1702,7 +1699,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="39.75" customFormat="1" s="7">
       <c r="A2" s="80" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2" s="81"/>
       <c r="C2" s="81"/>
@@ -1728,10 +1725,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A6" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="83" t="s">
         <v>142</v>
-      </c>
-      <c r="B6" s="83" t="s">
-        <v>143</v>
       </c>
       <c r="C6" s="83"/>
       <c r="D6" s="83"/>
@@ -1762,10 +1759,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A11" s="82" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="86" t="s">
         <v>144</v>
-      </c>
-      <c r="B11" s="86" t="s">
-        <v>145</v>
       </c>
       <c r="C11" s="83"/>
       <c r="D11" s="83"/>
@@ -1773,7 +1770,7 @@
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A12" s="82"/>
       <c r="B12" s="86" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C12" s="83"/>
       <c r="D12" s="83"/>
@@ -1792,10 +1789,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A15" s="82" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="87" t="s">
         <v>147</v>
-      </c>
-      <c r="B15" s="87" t="s">
-        <v>148</v>
       </c>
       <c r="C15" s="83"/>
       <c r="D15" s="83"/>
@@ -1803,7 +1800,7 @@
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A16" s="82"/>
       <c r="B16" s="83" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C16" s="83"/>
       <c r="D16" s="83"/>
@@ -1816,10 +1813,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A18" s="82" t="s">
+        <v>149</v>
+      </c>
+      <c r="B18" s="83" t="s">
         <v>150</v>
-      </c>
-      <c r="B18" s="88" t="s">
-        <v>151</v>
       </c>
       <c r="C18" s="84"/>
       <c r="D18" s="84"/>
@@ -1850,10 +1847,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A23" s="82" t="s">
+        <v>151</v>
+      </c>
+      <c r="B23" s="83" t="s">
         <v>152</v>
-      </c>
-      <c r="B23" s="83" t="s">
-        <v>153</v>
       </c>
       <c r="C23" s="83"/>
       <c r="D23" s="83"/>
@@ -1864,68 +1861,68 @@
       <c r="C24" s="83"/>
       <c r="D24" s="83"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" customFormat="1" s="7">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="7">
-      <c r="A31" s="89"/>
+      <c r="A31" s="88"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" customFormat="1" s="7">
-      <c r="A32" s="89"/>
+      <c r="A32" s="88"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" customFormat="1" s="7">
-      <c r="A33" s="89"/>
+      <c r="A33" s="88"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" customFormat="1" s="7">
-      <c r="A34" s="89"/>
+      <c r="A34" s="88"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" customFormat="1" s="7">
-      <c r="A35" s="89"/>
+      <c r="A35" s="88"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1949,11 +1946,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="63" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="79" width="14.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="63" width="91.43357142857143" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="63" width="115.86214285714286" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="63" width="105.57642857142856" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="63" width="23.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="79" width="23.576428571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="63" width="29.433571428571426" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="63" width="36.14785714285715" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="63" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -2085,11 +2082,11 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="2"/>
+      <c r="A1" s="68"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="E1" s="68"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -2220,14 +2217,14 @@
       <c r="EC1" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="70" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
+      <c r="A2" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -2357,11 +2354,11 @@
       <c r="EC2" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="2"/>
+      <c r="A3" s="68"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="2"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="68"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -2492,15 +2489,15 @@
       <c r="EC3" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="2"/>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="68"/>
+      <c r="B4" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="74" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="2"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="68"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -2631,15 +2628,15 @@
       <c r="EC4" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="2"/>
-      <c r="B5" s="73" t="s">
+      <c r="A5" s="68"/>
+      <c r="B5" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="75" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="2"/>
+      <c r="C5" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="71"/>
+      <c r="E5" s="68"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -2770,15 +2767,15 @@
       <c r="EC5" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="2"/>
-      <c r="B6" s="73" t="s">
+      <c r="A6" s="68"/>
+      <c r="B6" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="75" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="72"/>
-      <c r="E6" s="2"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="68"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -2909,15 +2906,15 @@
       <c r="EC6" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="2"/>
-      <c r="B7" s="73" t="s">
+      <c r="A7" s="68"/>
+      <c r="B7" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="75" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="72"/>
-      <c r="E7" s="2"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="68"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -3048,15 +3045,15 @@
       <c r="EC7" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="2"/>
-      <c r="B8" s="73" t="s">
+      <c r="A8" s="68"/>
+      <c r="B8" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="75" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="72"/>
-      <c r="E8" s="2"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="68"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -3187,11 +3184,11 @@
       <c r="EC8" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="2"/>
+      <c r="A9" s="68"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="2"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="68"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -3322,25 +3319,25 @@
       <c r="EC9" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="77" t="s">
+      <c r="C10" s="76" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="77" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="77" t="s">
+      <c r="E10" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" s="77" t="s">
+      <c r="F10" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="77" t="s">
+      <c r="G10" s="76" t="s">
         <v>10</v>
       </c>
       <c r="H10" s="2"/>
@@ -3471,1650 +3468,1650 @@
       <c r="EC10" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="75" t="s">
+      <c r="A11" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="75" t="s">
+      <c r="B11" s="74" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="75" t="s">
+      <c r="D11" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="75" t="s">
+      <c r="E11" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="75" t="s">
+      <c r="F11" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="75" t="s">
+      <c r="G11" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="G11" s="75" t="s">
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="77"/>
+      <c r="P11" s="77"/>
+      <c r="Q11" s="77"/>
+      <c r="R11" s="77"/>
+      <c r="S11" s="77"/>
+      <c r="T11" s="77"/>
+      <c r="U11" s="77"/>
+      <c r="V11" s="77"/>
+      <c r="W11" s="77"/>
+      <c r="X11" s="77"/>
+      <c r="Y11" s="77"/>
+      <c r="Z11" s="77"/>
+      <c r="AA11" s="77"/>
+      <c r="AB11" s="77"/>
+      <c r="AC11" s="77"/>
+      <c r="AD11" s="77"/>
+      <c r="AE11" s="77"/>
+      <c r="AF11" s="77"/>
+      <c r="AG11" s="77"/>
+      <c r="AH11" s="77"/>
+      <c r="AI11" s="77"/>
+      <c r="AJ11" s="77"/>
+      <c r="AK11" s="77"/>
+      <c r="AL11" s="77"/>
+      <c r="AM11" s="77"/>
+      <c r="AN11" s="77"/>
+      <c r="AO11" s="77"/>
+      <c r="AP11" s="77"/>
+      <c r="AQ11" s="77"/>
+      <c r="AR11" s="77"/>
+      <c r="AS11" s="77"/>
+      <c r="AT11" s="77"/>
+      <c r="AU11" s="77"/>
+      <c r="AV11" s="77"/>
+      <c r="AW11" s="77"/>
+      <c r="AX11" s="77"/>
+      <c r="AY11" s="77"/>
+      <c r="AZ11" s="77"/>
+      <c r="BA11" s="77"/>
+      <c r="BB11" s="77"/>
+      <c r="BC11" s="77"/>
+      <c r="BD11" s="77"/>
+      <c r="BE11" s="77"/>
+      <c r="BF11" s="77"/>
+      <c r="BG11" s="77"/>
+      <c r="BH11" s="77"/>
+      <c r="BI11" s="77"/>
+      <c r="BJ11" s="77"/>
+      <c r="BK11" s="77"/>
+      <c r="BL11" s="77"/>
+      <c r="BM11" s="77"/>
+      <c r="BN11" s="77"/>
+      <c r="BO11" s="77"/>
+      <c r="BP11" s="77"/>
+      <c r="BQ11" s="77"/>
+      <c r="BR11" s="77"/>
+      <c r="BS11" s="77"/>
+      <c r="BT11" s="77"/>
+      <c r="BU11" s="77"/>
+      <c r="BV11" s="77"/>
+      <c r="BW11" s="77"/>
+      <c r="BX11" s="77"/>
+      <c r="BY11" s="77"/>
+      <c r="BZ11" s="77"/>
+      <c r="CA11" s="77"/>
+      <c r="CB11" s="77"/>
+      <c r="CC11" s="77"/>
+      <c r="CD11" s="77"/>
+      <c r="CE11" s="77"/>
+      <c r="CF11" s="77"/>
+      <c r="CG11" s="77"/>
+      <c r="CH11" s="77"/>
+      <c r="CI11" s="77"/>
+      <c r="CJ11" s="77"/>
+      <c r="CK11" s="77"/>
+      <c r="CL11" s="77"/>
+      <c r="CM11" s="77"/>
+      <c r="CN11" s="77"/>
+      <c r="CO11" s="77"/>
+      <c r="CP11" s="77"/>
+      <c r="CQ11" s="77"/>
+      <c r="CR11" s="77"/>
+      <c r="CS11" s="77"/>
+      <c r="CT11" s="77"/>
+      <c r="CU11" s="77"/>
+      <c r="CV11" s="77"/>
+      <c r="CW11" s="77"/>
+      <c r="CX11" s="77"/>
+      <c r="CY11" s="77"/>
+      <c r="CZ11" s="77"/>
+      <c r="DA11" s="77"/>
+      <c r="DB11" s="77"/>
+      <c r="DC11" s="77"/>
+      <c r="DD11" s="77"/>
+      <c r="DE11" s="77"/>
+      <c r="DF11" s="77"/>
+      <c r="DG11" s="77"/>
+      <c r="DH11" s="77"/>
+      <c r="DI11" s="77"/>
+      <c r="DJ11" s="77"/>
+      <c r="DK11" s="77"/>
+      <c r="DL11" s="77"/>
+      <c r="DM11" s="77"/>
+      <c r="DN11" s="77"/>
+      <c r="DO11" s="77"/>
+      <c r="DP11" s="77"/>
+      <c r="DQ11" s="77"/>
+      <c r="DR11" s="77"/>
+      <c r="DS11" s="77"/>
+      <c r="DT11" s="77"/>
+      <c r="DU11" s="77"/>
+      <c r="DV11" s="77"/>
+      <c r="DW11" s="77"/>
+      <c r="DX11" s="77"/>
+      <c r="DY11" s="77"/>
+      <c r="DZ11" s="77"/>
+      <c r="EA11" s="77"/>
+      <c r="EB11" s="77"/>
+      <c r="EC11" s="77"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="78"/>
-      <c r="O11" s="78"/>
-      <c r="P11" s="78"/>
-      <c r="Q11" s="78"/>
-      <c r="R11" s="78"/>
-      <c r="S11" s="78"/>
-      <c r="T11" s="78"/>
-      <c r="U11" s="78"/>
-      <c r="V11" s="78"/>
-      <c r="W11" s="78"/>
-      <c r="X11" s="78"/>
-      <c r="Y11" s="78"/>
-      <c r="Z11" s="78"/>
-      <c r="AA11" s="78"/>
-      <c r="AB11" s="78"/>
-      <c r="AC11" s="78"/>
-      <c r="AD11" s="78"/>
-      <c r="AE11" s="78"/>
-      <c r="AF11" s="78"/>
-      <c r="AG11" s="78"/>
-      <c r="AH11" s="78"/>
-      <c r="AI11" s="78"/>
-      <c r="AJ11" s="78"/>
-      <c r="AK11" s="78"/>
-      <c r="AL11" s="78"/>
-      <c r="AM11" s="78"/>
-      <c r="AN11" s="78"/>
-      <c r="AO11" s="78"/>
-      <c r="AP11" s="78"/>
-      <c r="AQ11" s="78"/>
-      <c r="AR11" s="78"/>
-      <c r="AS11" s="78"/>
-      <c r="AT11" s="78"/>
-      <c r="AU11" s="78"/>
-      <c r="AV11" s="78"/>
-      <c r="AW11" s="78"/>
-      <c r="AX11" s="78"/>
-      <c r="AY11" s="78"/>
-      <c r="AZ11" s="78"/>
-      <c r="BA11" s="78"/>
-      <c r="BB11" s="78"/>
-      <c r="BC11" s="78"/>
-      <c r="BD11" s="78"/>
-      <c r="BE11" s="78"/>
-      <c r="BF11" s="78"/>
-      <c r="BG11" s="78"/>
-      <c r="BH11" s="78"/>
-      <c r="BI11" s="78"/>
-      <c r="BJ11" s="78"/>
-      <c r="BK11" s="78"/>
-      <c r="BL11" s="78"/>
-      <c r="BM11" s="78"/>
-      <c r="BN11" s="78"/>
-      <c r="BO11" s="78"/>
-      <c r="BP11" s="78"/>
-      <c r="BQ11" s="78"/>
-      <c r="BR11" s="78"/>
-      <c r="BS11" s="78"/>
-      <c r="BT11" s="78"/>
-      <c r="BU11" s="78"/>
-      <c r="BV11" s="78"/>
-      <c r="BW11" s="78"/>
-      <c r="BX11" s="78"/>
-      <c r="BY11" s="78"/>
-      <c r="BZ11" s="78"/>
-      <c r="CA11" s="78"/>
-      <c r="CB11" s="78"/>
-      <c r="CC11" s="78"/>
-      <c r="CD11" s="78"/>
-      <c r="CE11" s="78"/>
-      <c r="CF11" s="78"/>
-      <c r="CG11" s="78"/>
-      <c r="CH11" s="78"/>
-      <c r="CI11" s="78"/>
-      <c r="CJ11" s="78"/>
-      <c r="CK11" s="78"/>
-      <c r="CL11" s="78"/>
-      <c r="CM11" s="78"/>
-      <c r="CN11" s="78"/>
-      <c r="CO11" s="78"/>
-      <c r="CP11" s="78"/>
-      <c r="CQ11" s="78"/>
-      <c r="CR11" s="78"/>
-      <c r="CS11" s="78"/>
-      <c r="CT11" s="78"/>
-      <c r="CU11" s="78"/>
-      <c r="CV11" s="78"/>
-      <c r="CW11" s="78"/>
-      <c r="CX11" s="78"/>
-      <c r="CY11" s="78"/>
-      <c r="CZ11" s="78"/>
-      <c r="DA11" s="78"/>
-      <c r="DB11" s="78"/>
-      <c r="DC11" s="78"/>
-      <c r="DD11" s="78"/>
-      <c r="DE11" s="78"/>
-      <c r="DF11" s="78"/>
-      <c r="DG11" s="78"/>
-      <c r="DH11" s="78"/>
-      <c r="DI11" s="78"/>
-      <c r="DJ11" s="78"/>
-      <c r="DK11" s="78"/>
-      <c r="DL11" s="78"/>
-      <c r="DM11" s="78"/>
-      <c r="DN11" s="78"/>
-      <c r="DO11" s="78"/>
-      <c r="DP11" s="78"/>
-      <c r="DQ11" s="78"/>
-      <c r="DR11" s="78"/>
-      <c r="DS11" s="78"/>
-      <c r="DT11" s="78"/>
-      <c r="DU11" s="78"/>
-      <c r="DV11" s="78"/>
-      <c r="DW11" s="78"/>
-      <c r="DX11" s="78"/>
-      <c r="DY11" s="78"/>
-      <c r="DZ11" s="78"/>
-      <c r="EA11" s="78"/>
-      <c r="EB11" s="78"/>
-      <c r="EC11" s="78"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="75" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="75" t="s">
+      <c r="C12" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="75" t="s">
+      <c r="D12" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="75" t="s">
+      <c r="E12" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="74" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="75" t="s">
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="77"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="77"/>
+      <c r="Q12" s="77"/>
+      <c r="R12" s="77"/>
+      <c r="S12" s="77"/>
+      <c r="T12" s="77"/>
+      <c r="U12" s="77"/>
+      <c r="V12" s="77"/>
+      <c r="W12" s="77"/>
+      <c r="X12" s="77"/>
+      <c r="Y12" s="77"/>
+      <c r="Z12" s="77"/>
+      <c r="AA12" s="77"/>
+      <c r="AB12" s="77"/>
+      <c r="AC12" s="77"/>
+      <c r="AD12" s="77"/>
+      <c r="AE12" s="77"/>
+      <c r="AF12" s="77"/>
+      <c r="AG12" s="77"/>
+      <c r="AH12" s="77"/>
+      <c r="AI12" s="77"/>
+      <c r="AJ12" s="77"/>
+      <c r="AK12" s="77"/>
+      <c r="AL12" s="77"/>
+      <c r="AM12" s="77"/>
+      <c r="AN12" s="77"/>
+      <c r="AO12" s="77"/>
+      <c r="AP12" s="77"/>
+      <c r="AQ12" s="77"/>
+      <c r="AR12" s="77"/>
+      <c r="AS12" s="77"/>
+      <c r="AT12" s="77"/>
+      <c r="AU12" s="77"/>
+      <c r="AV12" s="77"/>
+      <c r="AW12" s="77"/>
+      <c r="AX12" s="77"/>
+      <c r="AY12" s="77"/>
+      <c r="AZ12" s="77"/>
+      <c r="BA12" s="77"/>
+      <c r="BB12" s="77"/>
+      <c r="BC12" s="77"/>
+      <c r="BD12" s="77"/>
+      <c r="BE12" s="77"/>
+      <c r="BF12" s="77"/>
+      <c r="BG12" s="77"/>
+      <c r="BH12" s="77"/>
+      <c r="BI12" s="77"/>
+      <c r="BJ12" s="77"/>
+      <c r="BK12" s="77"/>
+      <c r="BL12" s="77"/>
+      <c r="BM12" s="77"/>
+      <c r="BN12" s="77"/>
+      <c r="BO12" s="77"/>
+      <c r="BP12" s="77"/>
+      <c r="BQ12" s="77"/>
+      <c r="BR12" s="77"/>
+      <c r="BS12" s="77"/>
+      <c r="BT12" s="77"/>
+      <c r="BU12" s="77"/>
+      <c r="BV12" s="77"/>
+      <c r="BW12" s="77"/>
+      <c r="BX12" s="77"/>
+      <c r="BY12" s="77"/>
+      <c r="BZ12" s="77"/>
+      <c r="CA12" s="77"/>
+      <c r="CB12" s="77"/>
+      <c r="CC12" s="77"/>
+      <c r="CD12" s="77"/>
+      <c r="CE12" s="77"/>
+      <c r="CF12" s="77"/>
+      <c r="CG12" s="77"/>
+      <c r="CH12" s="77"/>
+      <c r="CI12" s="77"/>
+      <c r="CJ12" s="77"/>
+      <c r="CK12" s="77"/>
+      <c r="CL12" s="77"/>
+      <c r="CM12" s="77"/>
+      <c r="CN12" s="77"/>
+      <c r="CO12" s="77"/>
+      <c r="CP12" s="77"/>
+      <c r="CQ12" s="77"/>
+      <c r="CR12" s="77"/>
+      <c r="CS12" s="77"/>
+      <c r="CT12" s="77"/>
+      <c r="CU12" s="77"/>
+      <c r="CV12" s="77"/>
+      <c r="CW12" s="77"/>
+      <c r="CX12" s="77"/>
+      <c r="CY12" s="77"/>
+      <c r="CZ12" s="77"/>
+      <c r="DA12" s="77"/>
+      <c r="DB12" s="77"/>
+      <c r="DC12" s="77"/>
+      <c r="DD12" s="77"/>
+      <c r="DE12" s="77"/>
+      <c r="DF12" s="77"/>
+      <c r="DG12" s="77"/>
+      <c r="DH12" s="77"/>
+      <c r="DI12" s="77"/>
+      <c r="DJ12" s="77"/>
+      <c r="DK12" s="77"/>
+      <c r="DL12" s="77"/>
+      <c r="DM12" s="77"/>
+      <c r="DN12" s="77"/>
+      <c r="DO12" s="77"/>
+      <c r="DP12" s="77"/>
+      <c r="DQ12" s="77"/>
+      <c r="DR12" s="77"/>
+      <c r="DS12" s="77"/>
+      <c r="DT12" s="77"/>
+      <c r="DU12" s="77"/>
+      <c r="DV12" s="77"/>
+      <c r="DW12" s="77"/>
+      <c r="DX12" s="77"/>
+      <c r="DY12" s="77"/>
+      <c r="DZ12" s="77"/>
+      <c r="EA12" s="77"/>
+      <c r="EB12" s="77"/>
+      <c r="EC12" s="77"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="74" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="75" t="s">
-        <v>96</v>
-      </c>
-      <c r="G12" s="75" t="s">
-        <v>101</v>
-      </c>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="78"/>
-      <c r="L12" s="78"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="78"/>
-      <c r="O12" s="78"/>
-      <c r="P12" s="78"/>
-      <c r="Q12" s="78"/>
-      <c r="R12" s="78"/>
-      <c r="S12" s="78"/>
-      <c r="T12" s="78"/>
-      <c r="U12" s="78"/>
-      <c r="V12" s="78"/>
-      <c r="W12" s="78"/>
-      <c r="X12" s="78"/>
-      <c r="Y12" s="78"/>
-      <c r="Z12" s="78"/>
-      <c r="AA12" s="78"/>
-      <c r="AB12" s="78"/>
-      <c r="AC12" s="78"/>
-      <c r="AD12" s="78"/>
-      <c r="AE12" s="78"/>
-      <c r="AF12" s="78"/>
-      <c r="AG12" s="78"/>
-      <c r="AH12" s="78"/>
-      <c r="AI12" s="78"/>
-      <c r="AJ12" s="78"/>
-      <c r="AK12" s="78"/>
-      <c r="AL12" s="78"/>
-      <c r="AM12" s="78"/>
-      <c r="AN12" s="78"/>
-      <c r="AO12" s="78"/>
-      <c r="AP12" s="78"/>
-      <c r="AQ12" s="78"/>
-      <c r="AR12" s="78"/>
-      <c r="AS12" s="78"/>
-      <c r="AT12" s="78"/>
-      <c r="AU12" s="78"/>
-      <c r="AV12" s="78"/>
-      <c r="AW12" s="78"/>
-      <c r="AX12" s="78"/>
-      <c r="AY12" s="78"/>
-      <c r="AZ12" s="78"/>
-      <c r="BA12" s="78"/>
-      <c r="BB12" s="78"/>
-      <c r="BC12" s="78"/>
-      <c r="BD12" s="78"/>
-      <c r="BE12" s="78"/>
-      <c r="BF12" s="78"/>
-      <c r="BG12" s="78"/>
-      <c r="BH12" s="78"/>
-      <c r="BI12" s="78"/>
-      <c r="BJ12" s="78"/>
-      <c r="BK12" s="78"/>
-      <c r="BL12" s="78"/>
-      <c r="BM12" s="78"/>
-      <c r="BN12" s="78"/>
-      <c r="BO12" s="78"/>
-      <c r="BP12" s="78"/>
-      <c r="BQ12" s="78"/>
-      <c r="BR12" s="78"/>
-      <c r="BS12" s="78"/>
-      <c r="BT12" s="78"/>
-      <c r="BU12" s="78"/>
-      <c r="BV12" s="78"/>
-      <c r="BW12" s="78"/>
-      <c r="BX12" s="78"/>
-      <c r="BY12" s="78"/>
-      <c r="BZ12" s="78"/>
-      <c r="CA12" s="78"/>
-      <c r="CB12" s="78"/>
-      <c r="CC12" s="78"/>
-      <c r="CD12" s="78"/>
-      <c r="CE12" s="78"/>
-      <c r="CF12" s="78"/>
-      <c r="CG12" s="78"/>
-      <c r="CH12" s="78"/>
-      <c r="CI12" s="78"/>
-      <c r="CJ12" s="78"/>
-      <c r="CK12" s="78"/>
-      <c r="CL12" s="78"/>
-      <c r="CM12" s="78"/>
-      <c r="CN12" s="78"/>
-      <c r="CO12" s="78"/>
-      <c r="CP12" s="78"/>
-      <c r="CQ12" s="78"/>
-      <c r="CR12" s="78"/>
-      <c r="CS12" s="78"/>
-      <c r="CT12" s="78"/>
-      <c r="CU12" s="78"/>
-      <c r="CV12" s="78"/>
-      <c r="CW12" s="78"/>
-      <c r="CX12" s="78"/>
-      <c r="CY12" s="78"/>
-      <c r="CZ12" s="78"/>
-      <c r="DA12" s="78"/>
-      <c r="DB12" s="78"/>
-      <c r="DC12" s="78"/>
-      <c r="DD12" s="78"/>
-      <c r="DE12" s="78"/>
-      <c r="DF12" s="78"/>
-      <c r="DG12" s="78"/>
-      <c r="DH12" s="78"/>
-      <c r="DI12" s="78"/>
-      <c r="DJ12" s="78"/>
-      <c r="DK12" s="78"/>
-      <c r="DL12" s="78"/>
-      <c r="DM12" s="78"/>
-      <c r="DN12" s="78"/>
-      <c r="DO12" s="78"/>
-      <c r="DP12" s="78"/>
-      <c r="DQ12" s="78"/>
-      <c r="DR12" s="78"/>
-      <c r="DS12" s="78"/>
-      <c r="DT12" s="78"/>
-      <c r="DU12" s="78"/>
-      <c r="DV12" s="78"/>
-      <c r="DW12" s="78"/>
-      <c r="DX12" s="78"/>
-      <c r="DY12" s="78"/>
-      <c r="DZ12" s="78"/>
-      <c r="EA12" s="78"/>
-      <c r="EB12" s="78"/>
-      <c r="EC12" s="78"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="75" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="75" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="75" t="s">
+      <c r="G13" s="74" t="s">
         <v>104</v>
       </c>
-      <c r="E13" s="75" t="s">
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="77"/>
+      <c r="P13" s="77"/>
+      <c r="Q13" s="77"/>
+      <c r="R13" s="77"/>
+      <c r="S13" s="77"/>
+      <c r="T13" s="77"/>
+      <c r="U13" s="77"/>
+      <c r="V13" s="77"/>
+      <c r="W13" s="77"/>
+      <c r="X13" s="77"/>
+      <c r="Y13" s="77"/>
+      <c r="Z13" s="77"/>
+      <c r="AA13" s="77"/>
+      <c r="AB13" s="77"/>
+      <c r="AC13" s="77"/>
+      <c r="AD13" s="77"/>
+      <c r="AE13" s="77"/>
+      <c r="AF13" s="77"/>
+      <c r="AG13" s="77"/>
+      <c r="AH13" s="77"/>
+      <c r="AI13" s="77"/>
+      <c r="AJ13" s="77"/>
+      <c r="AK13" s="77"/>
+      <c r="AL13" s="77"/>
+      <c r="AM13" s="77"/>
+      <c r="AN13" s="77"/>
+      <c r="AO13" s="77"/>
+      <c r="AP13" s="77"/>
+      <c r="AQ13" s="77"/>
+      <c r="AR13" s="77"/>
+      <c r="AS13" s="77"/>
+      <c r="AT13" s="77"/>
+      <c r="AU13" s="77"/>
+      <c r="AV13" s="77"/>
+      <c r="AW13" s="77"/>
+      <c r="AX13" s="77"/>
+      <c r="AY13" s="77"/>
+      <c r="AZ13" s="77"/>
+      <c r="BA13" s="77"/>
+      <c r="BB13" s="77"/>
+      <c r="BC13" s="77"/>
+      <c r="BD13" s="77"/>
+      <c r="BE13" s="77"/>
+      <c r="BF13" s="77"/>
+      <c r="BG13" s="77"/>
+      <c r="BH13" s="77"/>
+      <c r="BI13" s="77"/>
+      <c r="BJ13" s="77"/>
+      <c r="BK13" s="77"/>
+      <c r="BL13" s="77"/>
+      <c r="BM13" s="77"/>
+      <c r="BN13" s="77"/>
+      <c r="BO13" s="77"/>
+      <c r="BP13" s="77"/>
+      <c r="BQ13" s="77"/>
+      <c r="BR13" s="77"/>
+      <c r="BS13" s="77"/>
+      <c r="BT13" s="77"/>
+      <c r="BU13" s="77"/>
+      <c r="BV13" s="77"/>
+      <c r="BW13" s="77"/>
+      <c r="BX13" s="77"/>
+      <c r="BY13" s="77"/>
+      <c r="BZ13" s="77"/>
+      <c r="CA13" s="77"/>
+      <c r="CB13" s="77"/>
+      <c r="CC13" s="77"/>
+      <c r="CD13" s="77"/>
+      <c r="CE13" s="77"/>
+      <c r="CF13" s="77"/>
+      <c r="CG13" s="77"/>
+      <c r="CH13" s="77"/>
+      <c r="CI13" s="77"/>
+      <c r="CJ13" s="77"/>
+      <c r="CK13" s="77"/>
+      <c r="CL13" s="77"/>
+      <c r="CM13" s="77"/>
+      <c r="CN13" s="77"/>
+      <c r="CO13" s="77"/>
+      <c r="CP13" s="77"/>
+      <c r="CQ13" s="77"/>
+      <c r="CR13" s="77"/>
+      <c r="CS13" s="77"/>
+      <c r="CT13" s="77"/>
+      <c r="CU13" s="77"/>
+      <c r="CV13" s="77"/>
+      <c r="CW13" s="77"/>
+      <c r="CX13" s="77"/>
+      <c r="CY13" s="77"/>
+      <c r="CZ13" s="77"/>
+      <c r="DA13" s="77"/>
+      <c r="DB13" s="77"/>
+      <c r="DC13" s="77"/>
+      <c r="DD13" s="77"/>
+      <c r="DE13" s="77"/>
+      <c r="DF13" s="77"/>
+      <c r="DG13" s="77"/>
+      <c r="DH13" s="77"/>
+      <c r="DI13" s="77"/>
+      <c r="DJ13" s="77"/>
+      <c r="DK13" s="77"/>
+      <c r="DL13" s="77"/>
+      <c r="DM13" s="77"/>
+      <c r="DN13" s="77"/>
+      <c r="DO13" s="77"/>
+      <c r="DP13" s="77"/>
+      <c r="DQ13" s="77"/>
+      <c r="DR13" s="77"/>
+      <c r="DS13" s="77"/>
+      <c r="DT13" s="77"/>
+      <c r="DU13" s="77"/>
+      <c r="DV13" s="77"/>
+      <c r="DW13" s="77"/>
+      <c r="DX13" s="77"/>
+      <c r="DY13" s="77"/>
+      <c r="DZ13" s="77"/>
+      <c r="EA13" s="77"/>
+      <c r="EB13" s="77"/>
+      <c r="EC13" s="77"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="74" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="75" t="s">
-        <v>96</v>
-      </c>
-      <c r="G13" s="75" t="s">
-        <v>105</v>
-      </c>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="78"/>
-      <c r="M13" s="78"/>
-      <c r="N13" s="78"/>
-      <c r="O13" s="78"/>
-      <c r="P13" s="78"/>
-      <c r="Q13" s="78"/>
-      <c r="R13" s="78"/>
-      <c r="S13" s="78"/>
-      <c r="T13" s="78"/>
-      <c r="U13" s="78"/>
-      <c r="V13" s="78"/>
-      <c r="W13" s="78"/>
-      <c r="X13" s="78"/>
-      <c r="Y13" s="78"/>
-      <c r="Z13" s="78"/>
-      <c r="AA13" s="78"/>
-      <c r="AB13" s="78"/>
-      <c r="AC13" s="78"/>
-      <c r="AD13" s="78"/>
-      <c r="AE13" s="78"/>
-      <c r="AF13" s="78"/>
-      <c r="AG13" s="78"/>
-      <c r="AH13" s="78"/>
-      <c r="AI13" s="78"/>
-      <c r="AJ13" s="78"/>
-      <c r="AK13" s="78"/>
-      <c r="AL13" s="78"/>
-      <c r="AM13" s="78"/>
-      <c r="AN13" s="78"/>
-      <c r="AO13" s="78"/>
-      <c r="AP13" s="78"/>
-      <c r="AQ13" s="78"/>
-      <c r="AR13" s="78"/>
-      <c r="AS13" s="78"/>
-      <c r="AT13" s="78"/>
-      <c r="AU13" s="78"/>
-      <c r="AV13" s="78"/>
-      <c r="AW13" s="78"/>
-      <c r="AX13" s="78"/>
-      <c r="AY13" s="78"/>
-      <c r="AZ13" s="78"/>
-      <c r="BA13" s="78"/>
-      <c r="BB13" s="78"/>
-      <c r="BC13" s="78"/>
-      <c r="BD13" s="78"/>
-      <c r="BE13" s="78"/>
-      <c r="BF13" s="78"/>
-      <c r="BG13" s="78"/>
-      <c r="BH13" s="78"/>
-      <c r="BI13" s="78"/>
-      <c r="BJ13" s="78"/>
-      <c r="BK13" s="78"/>
-      <c r="BL13" s="78"/>
-      <c r="BM13" s="78"/>
-      <c r="BN13" s="78"/>
-      <c r="BO13" s="78"/>
-      <c r="BP13" s="78"/>
-      <c r="BQ13" s="78"/>
-      <c r="BR13" s="78"/>
-      <c r="BS13" s="78"/>
-      <c r="BT13" s="78"/>
-      <c r="BU13" s="78"/>
-      <c r="BV13" s="78"/>
-      <c r="BW13" s="78"/>
-      <c r="BX13" s="78"/>
-      <c r="BY13" s="78"/>
-      <c r="BZ13" s="78"/>
-      <c r="CA13" s="78"/>
-      <c r="CB13" s="78"/>
-      <c r="CC13" s="78"/>
-      <c r="CD13" s="78"/>
-      <c r="CE13" s="78"/>
-      <c r="CF13" s="78"/>
-      <c r="CG13" s="78"/>
-      <c r="CH13" s="78"/>
-      <c r="CI13" s="78"/>
-      <c r="CJ13" s="78"/>
-      <c r="CK13" s="78"/>
-      <c r="CL13" s="78"/>
-      <c r="CM13" s="78"/>
-      <c r="CN13" s="78"/>
-      <c r="CO13" s="78"/>
-      <c r="CP13" s="78"/>
-      <c r="CQ13" s="78"/>
-      <c r="CR13" s="78"/>
-      <c r="CS13" s="78"/>
-      <c r="CT13" s="78"/>
-      <c r="CU13" s="78"/>
-      <c r="CV13" s="78"/>
-      <c r="CW13" s="78"/>
-      <c r="CX13" s="78"/>
-      <c r="CY13" s="78"/>
-      <c r="CZ13" s="78"/>
-      <c r="DA13" s="78"/>
-      <c r="DB13" s="78"/>
-      <c r="DC13" s="78"/>
-      <c r="DD13" s="78"/>
-      <c r="DE13" s="78"/>
-      <c r="DF13" s="78"/>
-      <c r="DG13" s="78"/>
-      <c r="DH13" s="78"/>
-      <c r="DI13" s="78"/>
-      <c r="DJ13" s="78"/>
-      <c r="DK13" s="78"/>
-      <c r="DL13" s="78"/>
-      <c r="DM13" s="78"/>
-      <c r="DN13" s="78"/>
-      <c r="DO13" s="78"/>
-      <c r="DP13" s="78"/>
-      <c r="DQ13" s="78"/>
-      <c r="DR13" s="78"/>
-      <c r="DS13" s="78"/>
-      <c r="DT13" s="78"/>
-      <c r="DU13" s="78"/>
-      <c r="DV13" s="78"/>
-      <c r="DW13" s="78"/>
-      <c r="DX13" s="78"/>
-      <c r="DY13" s="78"/>
-      <c r="DZ13" s="78"/>
-      <c r="EA13" s="78"/>
-      <c r="EB13" s="78"/>
-      <c r="EC13" s="78"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="75" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="75" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="75" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" s="75" t="s">
+      <c r="G14" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="77"/>
+      <c r="Q14" s="77"/>
+      <c r="R14" s="77"/>
+      <c r="S14" s="77"/>
+      <c r="T14" s="77"/>
+      <c r="U14" s="77"/>
+      <c r="V14" s="77"/>
+      <c r="W14" s="77"/>
+      <c r="X14" s="77"/>
+      <c r="Y14" s="77"/>
+      <c r="Z14" s="77"/>
+      <c r="AA14" s="77"/>
+      <c r="AB14" s="77"/>
+      <c r="AC14" s="77"/>
+      <c r="AD14" s="77"/>
+      <c r="AE14" s="77"/>
+      <c r="AF14" s="77"/>
+      <c r="AG14" s="77"/>
+      <c r="AH14" s="77"/>
+      <c r="AI14" s="77"/>
+      <c r="AJ14" s="77"/>
+      <c r="AK14" s="77"/>
+      <c r="AL14" s="77"/>
+      <c r="AM14" s="77"/>
+      <c r="AN14" s="77"/>
+      <c r="AO14" s="77"/>
+      <c r="AP14" s="77"/>
+      <c r="AQ14" s="77"/>
+      <c r="AR14" s="77"/>
+      <c r="AS14" s="77"/>
+      <c r="AT14" s="77"/>
+      <c r="AU14" s="77"/>
+      <c r="AV14" s="77"/>
+      <c r="AW14" s="77"/>
+      <c r="AX14" s="77"/>
+      <c r="AY14" s="77"/>
+      <c r="AZ14" s="77"/>
+      <c r="BA14" s="77"/>
+      <c r="BB14" s="77"/>
+      <c r="BC14" s="77"/>
+      <c r="BD14" s="77"/>
+      <c r="BE14" s="77"/>
+      <c r="BF14" s="77"/>
+      <c r="BG14" s="77"/>
+      <c r="BH14" s="77"/>
+      <c r="BI14" s="77"/>
+      <c r="BJ14" s="77"/>
+      <c r="BK14" s="77"/>
+      <c r="BL14" s="77"/>
+      <c r="BM14" s="77"/>
+      <c r="BN14" s="77"/>
+      <c r="BO14" s="77"/>
+      <c r="BP14" s="77"/>
+      <c r="BQ14" s="77"/>
+      <c r="BR14" s="77"/>
+      <c r="BS14" s="77"/>
+      <c r="BT14" s="77"/>
+      <c r="BU14" s="77"/>
+      <c r="BV14" s="77"/>
+      <c r="BW14" s="77"/>
+      <c r="BX14" s="77"/>
+      <c r="BY14" s="77"/>
+      <c r="BZ14" s="77"/>
+      <c r="CA14" s="77"/>
+      <c r="CB14" s="77"/>
+      <c r="CC14" s="77"/>
+      <c r="CD14" s="77"/>
+      <c r="CE14" s="77"/>
+      <c r="CF14" s="77"/>
+      <c r="CG14" s="77"/>
+      <c r="CH14" s="77"/>
+      <c r="CI14" s="77"/>
+      <c r="CJ14" s="77"/>
+      <c r="CK14" s="77"/>
+      <c r="CL14" s="77"/>
+      <c r="CM14" s="77"/>
+      <c r="CN14" s="77"/>
+      <c r="CO14" s="77"/>
+      <c r="CP14" s="77"/>
+      <c r="CQ14" s="77"/>
+      <c r="CR14" s="77"/>
+      <c r="CS14" s="77"/>
+      <c r="CT14" s="77"/>
+      <c r="CU14" s="77"/>
+      <c r="CV14" s="77"/>
+      <c r="CW14" s="77"/>
+      <c r="CX14" s="77"/>
+      <c r="CY14" s="77"/>
+      <c r="CZ14" s="77"/>
+      <c r="DA14" s="77"/>
+      <c r="DB14" s="77"/>
+      <c r="DC14" s="77"/>
+      <c r="DD14" s="77"/>
+      <c r="DE14" s="77"/>
+      <c r="DF14" s="77"/>
+      <c r="DG14" s="77"/>
+      <c r="DH14" s="77"/>
+      <c r="DI14" s="77"/>
+      <c r="DJ14" s="77"/>
+      <c r="DK14" s="77"/>
+      <c r="DL14" s="77"/>
+      <c r="DM14" s="77"/>
+      <c r="DN14" s="77"/>
+      <c r="DO14" s="77"/>
+      <c r="DP14" s="77"/>
+      <c r="DQ14" s="77"/>
+      <c r="DR14" s="77"/>
+      <c r="DS14" s="77"/>
+      <c r="DT14" s="77"/>
+      <c r="DU14" s="77"/>
+      <c r="DV14" s="77"/>
+      <c r="DW14" s="77"/>
+      <c r="DX14" s="77"/>
+      <c r="DY14" s="77"/>
+      <c r="DZ14" s="77"/>
+      <c r="EA14" s="77"/>
+      <c r="EB14" s="77"/>
+      <c r="EC14" s="77"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="74" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="74" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="74" t="s">
+        <v>113</v>
+      </c>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="77"/>
+      <c r="N15" s="77"/>
+      <c r="O15" s="77"/>
+      <c r="P15" s="77"/>
+      <c r="Q15" s="77"/>
+      <c r="R15" s="77"/>
+      <c r="S15" s="77"/>
+      <c r="T15" s="77"/>
+      <c r="U15" s="77"/>
+      <c r="V15" s="77"/>
+      <c r="W15" s="77"/>
+      <c r="X15" s="77"/>
+      <c r="Y15" s="77"/>
+      <c r="Z15" s="77"/>
+      <c r="AA15" s="77"/>
+      <c r="AB15" s="77"/>
+      <c r="AC15" s="77"/>
+      <c r="AD15" s="77"/>
+      <c r="AE15" s="77"/>
+      <c r="AF15" s="77"/>
+      <c r="AG15" s="77"/>
+      <c r="AH15" s="77"/>
+      <c r="AI15" s="77"/>
+      <c r="AJ15" s="77"/>
+      <c r="AK15" s="77"/>
+      <c r="AL15" s="77"/>
+      <c r="AM15" s="77"/>
+      <c r="AN15" s="77"/>
+      <c r="AO15" s="77"/>
+      <c r="AP15" s="77"/>
+      <c r="AQ15" s="77"/>
+      <c r="AR15" s="77"/>
+      <c r="AS15" s="77"/>
+      <c r="AT15" s="77"/>
+      <c r="AU15" s="77"/>
+      <c r="AV15" s="77"/>
+      <c r="AW15" s="77"/>
+      <c r="AX15" s="77"/>
+      <c r="AY15" s="77"/>
+      <c r="AZ15" s="77"/>
+      <c r="BA15" s="77"/>
+      <c r="BB15" s="77"/>
+      <c r="BC15" s="77"/>
+      <c r="BD15" s="77"/>
+      <c r="BE15" s="77"/>
+      <c r="BF15" s="77"/>
+      <c r="BG15" s="77"/>
+      <c r="BH15" s="77"/>
+      <c r="BI15" s="77"/>
+      <c r="BJ15" s="77"/>
+      <c r="BK15" s="77"/>
+      <c r="BL15" s="77"/>
+      <c r="BM15" s="77"/>
+      <c r="BN15" s="77"/>
+      <c r="BO15" s="77"/>
+      <c r="BP15" s="77"/>
+      <c r="BQ15" s="77"/>
+      <c r="BR15" s="77"/>
+      <c r="BS15" s="77"/>
+      <c r="BT15" s="77"/>
+      <c r="BU15" s="77"/>
+      <c r="BV15" s="77"/>
+      <c r="BW15" s="77"/>
+      <c r="BX15" s="77"/>
+      <c r="BY15" s="77"/>
+      <c r="BZ15" s="77"/>
+      <c r="CA15" s="77"/>
+      <c r="CB15" s="77"/>
+      <c r="CC15" s="77"/>
+      <c r="CD15" s="77"/>
+      <c r="CE15" s="77"/>
+      <c r="CF15" s="77"/>
+      <c r="CG15" s="77"/>
+      <c r="CH15" s="77"/>
+      <c r="CI15" s="77"/>
+      <c r="CJ15" s="77"/>
+      <c r="CK15" s="77"/>
+      <c r="CL15" s="77"/>
+      <c r="CM15" s="77"/>
+      <c r="CN15" s="77"/>
+      <c r="CO15" s="77"/>
+      <c r="CP15" s="77"/>
+      <c r="CQ15" s="77"/>
+      <c r="CR15" s="77"/>
+      <c r="CS15" s="77"/>
+      <c r="CT15" s="77"/>
+      <c r="CU15" s="77"/>
+      <c r="CV15" s="77"/>
+      <c r="CW15" s="77"/>
+      <c r="CX15" s="77"/>
+      <c r="CY15" s="77"/>
+      <c r="CZ15" s="77"/>
+      <c r="DA15" s="77"/>
+      <c r="DB15" s="77"/>
+      <c r="DC15" s="77"/>
+      <c r="DD15" s="77"/>
+      <c r="DE15" s="77"/>
+      <c r="DF15" s="77"/>
+      <c r="DG15" s="77"/>
+      <c r="DH15" s="77"/>
+      <c r="DI15" s="77"/>
+      <c r="DJ15" s="77"/>
+      <c r="DK15" s="77"/>
+      <c r="DL15" s="77"/>
+      <c r="DM15" s="77"/>
+      <c r="DN15" s="77"/>
+      <c r="DO15" s="77"/>
+      <c r="DP15" s="77"/>
+      <c r="DQ15" s="77"/>
+      <c r="DR15" s="77"/>
+      <c r="DS15" s="77"/>
+      <c r="DT15" s="77"/>
+      <c r="DU15" s="77"/>
+      <c r="DV15" s="77"/>
+      <c r="DW15" s="77"/>
+      <c r="DX15" s="77"/>
+      <c r="DY15" s="77"/>
+      <c r="DZ15" s="77"/>
+      <c r="EA15" s="77"/>
+      <c r="EB15" s="77"/>
+      <c r="EC15" s="77"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="74" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="74" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="74" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="74" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="77"/>
+      <c r="O16" s="77"/>
+      <c r="P16" s="77"/>
+      <c r="Q16" s="77"/>
+      <c r="R16" s="77"/>
+      <c r="S16" s="77"/>
+      <c r="T16" s="77"/>
+      <c r="U16" s="77"/>
+      <c r="V16" s="77"/>
+      <c r="W16" s="77"/>
+      <c r="X16" s="77"/>
+      <c r="Y16" s="77"/>
+      <c r="Z16" s="77"/>
+      <c r="AA16" s="77"/>
+      <c r="AB16" s="77"/>
+      <c r="AC16" s="77"/>
+      <c r="AD16" s="77"/>
+      <c r="AE16" s="77"/>
+      <c r="AF16" s="77"/>
+      <c r="AG16" s="77"/>
+      <c r="AH16" s="77"/>
+      <c r="AI16" s="77"/>
+      <c r="AJ16" s="77"/>
+      <c r="AK16" s="77"/>
+      <c r="AL16" s="77"/>
+      <c r="AM16" s="77"/>
+      <c r="AN16" s="77"/>
+      <c r="AO16" s="77"/>
+      <c r="AP16" s="77"/>
+      <c r="AQ16" s="77"/>
+      <c r="AR16" s="77"/>
+      <c r="AS16" s="77"/>
+      <c r="AT16" s="77"/>
+      <c r="AU16" s="77"/>
+      <c r="AV16" s="77"/>
+      <c r="AW16" s="77"/>
+      <c r="AX16" s="77"/>
+      <c r="AY16" s="77"/>
+      <c r="AZ16" s="77"/>
+      <c r="BA16" s="77"/>
+      <c r="BB16" s="77"/>
+      <c r="BC16" s="77"/>
+      <c r="BD16" s="77"/>
+      <c r="BE16" s="77"/>
+      <c r="BF16" s="77"/>
+      <c r="BG16" s="77"/>
+      <c r="BH16" s="77"/>
+      <c r="BI16" s="77"/>
+      <c r="BJ16" s="77"/>
+      <c r="BK16" s="77"/>
+      <c r="BL16" s="77"/>
+      <c r="BM16" s="77"/>
+      <c r="BN16" s="77"/>
+      <c r="BO16" s="77"/>
+      <c r="BP16" s="77"/>
+      <c r="BQ16" s="77"/>
+      <c r="BR16" s="77"/>
+      <c r="BS16" s="77"/>
+      <c r="BT16" s="77"/>
+      <c r="BU16" s="77"/>
+      <c r="BV16" s="77"/>
+      <c r="BW16" s="77"/>
+      <c r="BX16" s="77"/>
+      <c r="BY16" s="77"/>
+      <c r="BZ16" s="77"/>
+      <c r="CA16" s="77"/>
+      <c r="CB16" s="77"/>
+      <c r="CC16" s="77"/>
+      <c r="CD16" s="77"/>
+      <c r="CE16" s="77"/>
+      <c r="CF16" s="77"/>
+      <c r="CG16" s="77"/>
+      <c r="CH16" s="77"/>
+      <c r="CI16" s="77"/>
+      <c r="CJ16" s="77"/>
+      <c r="CK16" s="77"/>
+      <c r="CL16" s="77"/>
+      <c r="CM16" s="77"/>
+      <c r="CN16" s="77"/>
+      <c r="CO16" s="77"/>
+      <c r="CP16" s="77"/>
+      <c r="CQ16" s="77"/>
+      <c r="CR16" s="77"/>
+      <c r="CS16" s="77"/>
+      <c r="CT16" s="77"/>
+      <c r="CU16" s="77"/>
+      <c r="CV16" s="77"/>
+      <c r="CW16" s="77"/>
+      <c r="CX16" s="77"/>
+      <c r="CY16" s="77"/>
+      <c r="CZ16" s="77"/>
+      <c r="DA16" s="77"/>
+      <c r="DB16" s="77"/>
+      <c r="DC16" s="77"/>
+      <c r="DD16" s="77"/>
+      <c r="DE16" s="77"/>
+      <c r="DF16" s="77"/>
+      <c r="DG16" s="77"/>
+      <c r="DH16" s="77"/>
+      <c r="DI16" s="77"/>
+      <c r="DJ16" s="77"/>
+      <c r="DK16" s="77"/>
+      <c r="DL16" s="77"/>
+      <c r="DM16" s="77"/>
+      <c r="DN16" s="77"/>
+      <c r="DO16" s="77"/>
+      <c r="DP16" s="77"/>
+      <c r="DQ16" s="77"/>
+      <c r="DR16" s="77"/>
+      <c r="DS16" s="77"/>
+      <c r="DT16" s="77"/>
+      <c r="DU16" s="77"/>
+      <c r="DV16" s="77"/>
+      <c r="DW16" s="77"/>
+      <c r="DX16" s="77"/>
+      <c r="DY16" s="77"/>
+      <c r="DZ16" s="77"/>
+      <c r="EA16" s="77"/>
+      <c r="EB16" s="77"/>
+      <c r="EC16" s="77"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="74" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="74" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="74" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="75" t="s">
-        <v>109</v>
-      </c>
-      <c r="F14" s="75" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="75" t="s">
-        <v>110</v>
-      </c>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="78"/>
-      <c r="O14" s="78"/>
-      <c r="P14" s="78"/>
-      <c r="Q14" s="78"/>
-      <c r="R14" s="78"/>
-      <c r="S14" s="78"/>
-      <c r="T14" s="78"/>
-      <c r="U14" s="78"/>
-      <c r="V14" s="78"/>
-      <c r="W14" s="78"/>
-      <c r="X14" s="78"/>
-      <c r="Y14" s="78"/>
-      <c r="Z14" s="78"/>
-      <c r="AA14" s="78"/>
-      <c r="AB14" s="78"/>
-      <c r="AC14" s="78"/>
-      <c r="AD14" s="78"/>
-      <c r="AE14" s="78"/>
-      <c r="AF14" s="78"/>
-      <c r="AG14" s="78"/>
-      <c r="AH14" s="78"/>
-      <c r="AI14" s="78"/>
-      <c r="AJ14" s="78"/>
-      <c r="AK14" s="78"/>
-      <c r="AL14" s="78"/>
-      <c r="AM14" s="78"/>
-      <c r="AN14" s="78"/>
-      <c r="AO14" s="78"/>
-      <c r="AP14" s="78"/>
-      <c r="AQ14" s="78"/>
-      <c r="AR14" s="78"/>
-      <c r="AS14" s="78"/>
-      <c r="AT14" s="78"/>
-      <c r="AU14" s="78"/>
-      <c r="AV14" s="78"/>
-      <c r="AW14" s="78"/>
-      <c r="AX14" s="78"/>
-      <c r="AY14" s="78"/>
-      <c r="AZ14" s="78"/>
-      <c r="BA14" s="78"/>
-      <c r="BB14" s="78"/>
-      <c r="BC14" s="78"/>
-      <c r="BD14" s="78"/>
-      <c r="BE14" s="78"/>
-      <c r="BF14" s="78"/>
-      <c r="BG14" s="78"/>
-      <c r="BH14" s="78"/>
-      <c r="BI14" s="78"/>
-      <c r="BJ14" s="78"/>
-      <c r="BK14" s="78"/>
-      <c r="BL14" s="78"/>
-      <c r="BM14" s="78"/>
-      <c r="BN14" s="78"/>
-      <c r="BO14" s="78"/>
-      <c r="BP14" s="78"/>
-      <c r="BQ14" s="78"/>
-      <c r="BR14" s="78"/>
-      <c r="BS14" s="78"/>
-      <c r="BT14" s="78"/>
-      <c r="BU14" s="78"/>
-      <c r="BV14" s="78"/>
-      <c r="BW14" s="78"/>
-      <c r="BX14" s="78"/>
-      <c r="BY14" s="78"/>
-      <c r="BZ14" s="78"/>
-      <c r="CA14" s="78"/>
-      <c r="CB14" s="78"/>
-      <c r="CC14" s="78"/>
-      <c r="CD14" s="78"/>
-      <c r="CE14" s="78"/>
-      <c r="CF14" s="78"/>
-      <c r="CG14" s="78"/>
-      <c r="CH14" s="78"/>
-      <c r="CI14" s="78"/>
-      <c r="CJ14" s="78"/>
-      <c r="CK14" s="78"/>
-      <c r="CL14" s="78"/>
-      <c r="CM14" s="78"/>
-      <c r="CN14" s="78"/>
-      <c r="CO14" s="78"/>
-      <c r="CP14" s="78"/>
-      <c r="CQ14" s="78"/>
-      <c r="CR14" s="78"/>
-      <c r="CS14" s="78"/>
-      <c r="CT14" s="78"/>
-      <c r="CU14" s="78"/>
-      <c r="CV14" s="78"/>
-      <c r="CW14" s="78"/>
-      <c r="CX14" s="78"/>
-      <c r="CY14" s="78"/>
-      <c r="CZ14" s="78"/>
-      <c r="DA14" s="78"/>
-      <c r="DB14" s="78"/>
-      <c r="DC14" s="78"/>
-      <c r="DD14" s="78"/>
-      <c r="DE14" s="78"/>
-      <c r="DF14" s="78"/>
-      <c r="DG14" s="78"/>
-      <c r="DH14" s="78"/>
-      <c r="DI14" s="78"/>
-      <c r="DJ14" s="78"/>
-      <c r="DK14" s="78"/>
-      <c r="DL14" s="78"/>
-      <c r="DM14" s="78"/>
-      <c r="DN14" s="78"/>
-      <c r="DO14" s="78"/>
-      <c r="DP14" s="78"/>
-      <c r="DQ14" s="78"/>
-      <c r="DR14" s="78"/>
-      <c r="DS14" s="78"/>
-      <c r="DT14" s="78"/>
-      <c r="DU14" s="78"/>
-      <c r="DV14" s="78"/>
-      <c r="DW14" s="78"/>
-      <c r="DX14" s="78"/>
-      <c r="DY14" s="78"/>
-      <c r="DZ14" s="78"/>
-      <c r="EA14" s="78"/>
-      <c r="EB14" s="78"/>
-      <c r="EC14" s="78"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="75" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="75" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" s="75" t="s">
-        <v>113</v>
-      </c>
-      <c r="E15" s="75" t="s">
+      <c r="F17" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="F15" s="75" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" s="75" t="s">
-        <v>114</v>
-      </c>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="78"/>
-      <c r="M15" s="78"/>
-      <c r="N15" s="78"/>
-      <c r="O15" s="78"/>
-      <c r="P15" s="78"/>
-      <c r="Q15" s="78"/>
-      <c r="R15" s="78"/>
-      <c r="S15" s="78"/>
-      <c r="T15" s="78"/>
-      <c r="U15" s="78"/>
-      <c r="V15" s="78"/>
-      <c r="W15" s="78"/>
-      <c r="X15" s="78"/>
-      <c r="Y15" s="78"/>
-      <c r="Z15" s="78"/>
-      <c r="AA15" s="78"/>
-      <c r="AB15" s="78"/>
-      <c r="AC15" s="78"/>
-      <c r="AD15" s="78"/>
-      <c r="AE15" s="78"/>
-      <c r="AF15" s="78"/>
-      <c r="AG15" s="78"/>
-      <c r="AH15" s="78"/>
-      <c r="AI15" s="78"/>
-      <c r="AJ15" s="78"/>
-      <c r="AK15" s="78"/>
-      <c r="AL15" s="78"/>
-      <c r="AM15" s="78"/>
-      <c r="AN15" s="78"/>
-      <c r="AO15" s="78"/>
-      <c r="AP15" s="78"/>
-      <c r="AQ15" s="78"/>
-      <c r="AR15" s="78"/>
-      <c r="AS15" s="78"/>
-      <c r="AT15" s="78"/>
-      <c r="AU15" s="78"/>
-      <c r="AV15" s="78"/>
-      <c r="AW15" s="78"/>
-      <c r="AX15" s="78"/>
-      <c r="AY15" s="78"/>
-      <c r="AZ15" s="78"/>
-      <c r="BA15" s="78"/>
-      <c r="BB15" s="78"/>
-      <c r="BC15" s="78"/>
-      <c r="BD15" s="78"/>
-      <c r="BE15" s="78"/>
-      <c r="BF15" s="78"/>
-      <c r="BG15" s="78"/>
-      <c r="BH15" s="78"/>
-      <c r="BI15" s="78"/>
-      <c r="BJ15" s="78"/>
-      <c r="BK15" s="78"/>
-      <c r="BL15" s="78"/>
-      <c r="BM15" s="78"/>
-      <c r="BN15" s="78"/>
-      <c r="BO15" s="78"/>
-      <c r="BP15" s="78"/>
-      <c r="BQ15" s="78"/>
-      <c r="BR15" s="78"/>
-      <c r="BS15" s="78"/>
-      <c r="BT15" s="78"/>
-      <c r="BU15" s="78"/>
-      <c r="BV15" s="78"/>
-      <c r="BW15" s="78"/>
-      <c r="BX15" s="78"/>
-      <c r="BY15" s="78"/>
-      <c r="BZ15" s="78"/>
-      <c r="CA15" s="78"/>
-      <c r="CB15" s="78"/>
-      <c r="CC15" s="78"/>
-      <c r="CD15" s="78"/>
-      <c r="CE15" s="78"/>
-      <c r="CF15" s="78"/>
-      <c r="CG15" s="78"/>
-      <c r="CH15" s="78"/>
-      <c r="CI15" s="78"/>
-      <c r="CJ15" s="78"/>
-      <c r="CK15" s="78"/>
-      <c r="CL15" s="78"/>
-      <c r="CM15" s="78"/>
-      <c r="CN15" s="78"/>
-      <c r="CO15" s="78"/>
-      <c r="CP15" s="78"/>
-      <c r="CQ15" s="78"/>
-      <c r="CR15" s="78"/>
-      <c r="CS15" s="78"/>
-      <c r="CT15" s="78"/>
-      <c r="CU15" s="78"/>
-      <c r="CV15" s="78"/>
-      <c r="CW15" s="78"/>
-      <c r="CX15" s="78"/>
-      <c r="CY15" s="78"/>
-      <c r="CZ15" s="78"/>
-      <c r="DA15" s="78"/>
-      <c r="DB15" s="78"/>
-      <c r="DC15" s="78"/>
-      <c r="DD15" s="78"/>
-      <c r="DE15" s="78"/>
-      <c r="DF15" s="78"/>
-      <c r="DG15" s="78"/>
-      <c r="DH15" s="78"/>
-      <c r="DI15" s="78"/>
-      <c r="DJ15" s="78"/>
-      <c r="DK15" s="78"/>
-      <c r="DL15" s="78"/>
-      <c r="DM15" s="78"/>
-      <c r="DN15" s="78"/>
-      <c r="DO15" s="78"/>
-      <c r="DP15" s="78"/>
-      <c r="DQ15" s="78"/>
-      <c r="DR15" s="78"/>
-      <c r="DS15" s="78"/>
-      <c r="DT15" s="78"/>
-      <c r="DU15" s="78"/>
-      <c r="DV15" s="78"/>
-      <c r="DW15" s="78"/>
-      <c r="DX15" s="78"/>
-      <c r="DY15" s="78"/>
-      <c r="DZ15" s="78"/>
-      <c r="EA15" s="78"/>
-      <c r="EB15" s="78"/>
-      <c r="EC15" s="78"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="75" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="75" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" s="75" t="s">
-        <v>116</v>
-      </c>
-      <c r="D16" s="75" t="s">
+      <c r="G17" s="74" t="s">
+        <v>122</v>
+      </c>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="77"/>
+      <c r="P17" s="77"/>
+      <c r="Q17" s="77"/>
+      <c r="R17" s="77"/>
+      <c r="S17" s="77"/>
+      <c r="T17" s="77"/>
+      <c r="U17" s="77"/>
+      <c r="V17" s="77"/>
+      <c r="W17" s="77"/>
+      <c r="X17" s="77"/>
+      <c r="Y17" s="77"/>
+      <c r="Z17" s="77"/>
+      <c r="AA17" s="77"/>
+      <c r="AB17" s="77"/>
+      <c r="AC17" s="77"/>
+      <c r="AD17" s="77"/>
+      <c r="AE17" s="77"/>
+      <c r="AF17" s="77"/>
+      <c r="AG17" s="77"/>
+      <c r="AH17" s="77"/>
+      <c r="AI17" s="77"/>
+      <c r="AJ17" s="77"/>
+      <c r="AK17" s="77"/>
+      <c r="AL17" s="77"/>
+      <c r="AM17" s="77"/>
+      <c r="AN17" s="77"/>
+      <c r="AO17" s="77"/>
+      <c r="AP17" s="77"/>
+      <c r="AQ17" s="77"/>
+      <c r="AR17" s="77"/>
+      <c r="AS17" s="77"/>
+      <c r="AT17" s="77"/>
+      <c r="AU17" s="77"/>
+      <c r="AV17" s="77"/>
+      <c r="AW17" s="77"/>
+      <c r="AX17" s="77"/>
+      <c r="AY17" s="77"/>
+      <c r="AZ17" s="77"/>
+      <c r="BA17" s="77"/>
+      <c r="BB17" s="77"/>
+      <c r="BC17" s="77"/>
+      <c r="BD17" s="77"/>
+      <c r="BE17" s="77"/>
+      <c r="BF17" s="77"/>
+      <c r="BG17" s="77"/>
+      <c r="BH17" s="77"/>
+      <c r="BI17" s="77"/>
+      <c r="BJ17" s="77"/>
+      <c r="BK17" s="77"/>
+      <c r="BL17" s="77"/>
+      <c r="BM17" s="77"/>
+      <c r="BN17" s="77"/>
+      <c r="BO17" s="77"/>
+      <c r="BP17" s="77"/>
+      <c r="BQ17" s="77"/>
+      <c r="BR17" s="77"/>
+      <c r="BS17" s="77"/>
+      <c r="BT17" s="77"/>
+      <c r="BU17" s="77"/>
+      <c r="BV17" s="77"/>
+      <c r="BW17" s="77"/>
+      <c r="BX17" s="77"/>
+      <c r="BY17" s="77"/>
+      <c r="BZ17" s="77"/>
+      <c r="CA17" s="77"/>
+      <c r="CB17" s="77"/>
+      <c r="CC17" s="77"/>
+      <c r="CD17" s="77"/>
+      <c r="CE17" s="77"/>
+      <c r="CF17" s="77"/>
+      <c r="CG17" s="77"/>
+      <c r="CH17" s="77"/>
+      <c r="CI17" s="77"/>
+      <c r="CJ17" s="77"/>
+      <c r="CK17" s="77"/>
+      <c r="CL17" s="77"/>
+      <c r="CM17" s="77"/>
+      <c r="CN17" s="77"/>
+      <c r="CO17" s="77"/>
+      <c r="CP17" s="77"/>
+      <c r="CQ17" s="77"/>
+      <c r="CR17" s="77"/>
+      <c r="CS17" s="77"/>
+      <c r="CT17" s="77"/>
+      <c r="CU17" s="77"/>
+      <c r="CV17" s="77"/>
+      <c r="CW17" s="77"/>
+      <c r="CX17" s="77"/>
+      <c r="CY17" s="77"/>
+      <c r="CZ17" s="77"/>
+      <c r="DA17" s="77"/>
+      <c r="DB17" s="77"/>
+      <c r="DC17" s="77"/>
+      <c r="DD17" s="77"/>
+      <c r="DE17" s="77"/>
+      <c r="DF17" s="77"/>
+      <c r="DG17" s="77"/>
+      <c r="DH17" s="77"/>
+      <c r="DI17" s="77"/>
+      <c r="DJ17" s="77"/>
+      <c r="DK17" s="77"/>
+      <c r="DL17" s="77"/>
+      <c r="DM17" s="77"/>
+      <c r="DN17" s="77"/>
+      <c r="DO17" s="77"/>
+      <c r="DP17" s="77"/>
+      <c r="DQ17" s="77"/>
+      <c r="DR17" s="77"/>
+      <c r="DS17" s="77"/>
+      <c r="DT17" s="77"/>
+      <c r="DU17" s="77"/>
+      <c r="DV17" s="77"/>
+      <c r="DW17" s="77"/>
+      <c r="DX17" s="77"/>
+      <c r="DY17" s="77"/>
+      <c r="DZ17" s="77"/>
+      <c r="EA17" s="77"/>
+      <c r="EB17" s="77"/>
+      <c r="EC17" s="77"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="74" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="74" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="77"/>
+      <c r="Q18" s="77"/>
+      <c r="R18" s="77"/>
+      <c r="S18" s="77"/>
+      <c r="T18" s="77"/>
+      <c r="U18" s="77"/>
+      <c r="V18" s="77"/>
+      <c r="W18" s="77"/>
+      <c r="X18" s="77"/>
+      <c r="Y18" s="77"/>
+      <c r="Z18" s="77"/>
+      <c r="AA18" s="77"/>
+      <c r="AB18" s="77"/>
+      <c r="AC18" s="77"/>
+      <c r="AD18" s="77"/>
+      <c r="AE18" s="77"/>
+      <c r="AF18" s="77"/>
+      <c r="AG18" s="77"/>
+      <c r="AH18" s="77"/>
+      <c r="AI18" s="77"/>
+      <c r="AJ18" s="77"/>
+      <c r="AK18" s="77"/>
+      <c r="AL18" s="77"/>
+      <c r="AM18" s="77"/>
+      <c r="AN18" s="77"/>
+      <c r="AO18" s="77"/>
+      <c r="AP18" s="77"/>
+      <c r="AQ18" s="77"/>
+      <c r="AR18" s="77"/>
+      <c r="AS18" s="77"/>
+      <c r="AT18" s="77"/>
+      <c r="AU18" s="77"/>
+      <c r="AV18" s="77"/>
+      <c r="AW18" s="77"/>
+      <c r="AX18" s="77"/>
+      <c r="AY18" s="77"/>
+      <c r="AZ18" s="77"/>
+      <c r="BA18" s="77"/>
+      <c r="BB18" s="77"/>
+      <c r="BC18" s="77"/>
+      <c r="BD18" s="77"/>
+      <c r="BE18" s="77"/>
+      <c r="BF18" s="77"/>
+      <c r="BG18" s="77"/>
+      <c r="BH18" s="77"/>
+      <c r="BI18" s="77"/>
+      <c r="BJ18" s="77"/>
+      <c r="BK18" s="77"/>
+      <c r="BL18" s="77"/>
+      <c r="BM18" s="77"/>
+      <c r="BN18" s="77"/>
+      <c r="BO18" s="77"/>
+      <c r="BP18" s="77"/>
+      <c r="BQ18" s="77"/>
+      <c r="BR18" s="77"/>
+      <c r="BS18" s="77"/>
+      <c r="BT18" s="77"/>
+      <c r="BU18" s="77"/>
+      <c r="BV18" s="77"/>
+      <c r="BW18" s="77"/>
+      <c r="BX18" s="77"/>
+      <c r="BY18" s="77"/>
+      <c r="BZ18" s="77"/>
+      <c r="CA18" s="77"/>
+      <c r="CB18" s="77"/>
+      <c r="CC18" s="77"/>
+      <c r="CD18" s="77"/>
+      <c r="CE18" s="77"/>
+      <c r="CF18" s="77"/>
+      <c r="CG18" s="77"/>
+      <c r="CH18" s="77"/>
+      <c r="CI18" s="77"/>
+      <c r="CJ18" s="77"/>
+      <c r="CK18" s="77"/>
+      <c r="CL18" s="77"/>
+      <c r="CM18" s="77"/>
+      <c r="CN18" s="77"/>
+      <c r="CO18" s="77"/>
+      <c r="CP18" s="77"/>
+      <c r="CQ18" s="77"/>
+      <c r="CR18" s="77"/>
+      <c r="CS18" s="77"/>
+      <c r="CT18" s="77"/>
+      <c r="CU18" s="77"/>
+      <c r="CV18" s="77"/>
+      <c r="CW18" s="77"/>
+      <c r="CX18" s="77"/>
+      <c r="CY18" s="77"/>
+      <c r="CZ18" s="77"/>
+      <c r="DA18" s="77"/>
+      <c r="DB18" s="77"/>
+      <c r="DC18" s="77"/>
+      <c r="DD18" s="77"/>
+      <c r="DE18" s="77"/>
+      <c r="DF18" s="77"/>
+      <c r="DG18" s="77"/>
+      <c r="DH18" s="77"/>
+      <c r="DI18" s="77"/>
+      <c r="DJ18" s="77"/>
+      <c r="DK18" s="77"/>
+      <c r="DL18" s="77"/>
+      <c r="DM18" s="77"/>
+      <c r="DN18" s="77"/>
+      <c r="DO18" s="77"/>
+      <c r="DP18" s="77"/>
+      <c r="DQ18" s="77"/>
+      <c r="DR18" s="77"/>
+      <c r="DS18" s="77"/>
+      <c r="DT18" s="77"/>
+      <c r="DU18" s="77"/>
+      <c r="DV18" s="77"/>
+      <c r="DW18" s="77"/>
+      <c r="DX18" s="77"/>
+      <c r="DY18" s="77"/>
+      <c r="DZ18" s="77"/>
+      <c r="EA18" s="77"/>
+      <c r="EB18" s="77"/>
+      <c r="EC18" s="77"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="74" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="74" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="E16" s="75" t="s">
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="77"/>
+      <c r="Q19" s="77"/>
+      <c r="R19" s="77"/>
+      <c r="S19" s="77"/>
+      <c r="T19" s="77"/>
+      <c r="U19" s="77"/>
+      <c r="V19" s="77"/>
+      <c r="W19" s="77"/>
+      <c r="X19" s="77"/>
+      <c r="Y19" s="77"/>
+      <c r="Z19" s="77"/>
+      <c r="AA19" s="77"/>
+      <c r="AB19" s="77"/>
+      <c r="AC19" s="77"/>
+      <c r="AD19" s="77"/>
+      <c r="AE19" s="77"/>
+      <c r="AF19" s="77"/>
+      <c r="AG19" s="77"/>
+      <c r="AH19" s="77"/>
+      <c r="AI19" s="77"/>
+      <c r="AJ19" s="77"/>
+      <c r="AK19" s="77"/>
+      <c r="AL19" s="77"/>
+      <c r="AM19" s="77"/>
+      <c r="AN19" s="77"/>
+      <c r="AO19" s="77"/>
+      <c r="AP19" s="77"/>
+      <c r="AQ19" s="77"/>
+      <c r="AR19" s="77"/>
+      <c r="AS19" s="77"/>
+      <c r="AT19" s="77"/>
+      <c r="AU19" s="77"/>
+      <c r="AV19" s="77"/>
+      <c r="AW19" s="77"/>
+      <c r="AX19" s="77"/>
+      <c r="AY19" s="77"/>
+      <c r="AZ19" s="77"/>
+      <c r="BA19" s="77"/>
+      <c r="BB19" s="77"/>
+      <c r="BC19" s="77"/>
+      <c r="BD19" s="77"/>
+      <c r="BE19" s="77"/>
+      <c r="BF19" s="77"/>
+      <c r="BG19" s="77"/>
+      <c r="BH19" s="77"/>
+      <c r="BI19" s="77"/>
+      <c r="BJ19" s="77"/>
+      <c r="BK19" s="77"/>
+      <c r="BL19" s="77"/>
+      <c r="BM19" s="77"/>
+      <c r="BN19" s="77"/>
+      <c r="BO19" s="77"/>
+      <c r="BP19" s="77"/>
+      <c r="BQ19" s="77"/>
+      <c r="BR19" s="77"/>
+      <c r="BS19" s="77"/>
+      <c r="BT19" s="77"/>
+      <c r="BU19" s="77"/>
+      <c r="BV19" s="77"/>
+      <c r="BW19" s="77"/>
+      <c r="BX19" s="77"/>
+      <c r="BY19" s="77"/>
+      <c r="BZ19" s="77"/>
+      <c r="CA19" s="77"/>
+      <c r="CB19" s="77"/>
+      <c r="CC19" s="77"/>
+      <c r="CD19" s="77"/>
+      <c r="CE19" s="77"/>
+      <c r="CF19" s="77"/>
+      <c r="CG19" s="77"/>
+      <c r="CH19" s="77"/>
+      <c r="CI19" s="77"/>
+      <c r="CJ19" s="77"/>
+      <c r="CK19" s="77"/>
+      <c r="CL19" s="77"/>
+      <c r="CM19" s="77"/>
+      <c r="CN19" s="77"/>
+      <c r="CO19" s="77"/>
+      <c r="CP19" s="77"/>
+      <c r="CQ19" s="77"/>
+      <c r="CR19" s="77"/>
+      <c r="CS19" s="77"/>
+      <c r="CT19" s="77"/>
+      <c r="CU19" s="77"/>
+      <c r="CV19" s="77"/>
+      <c r="CW19" s="77"/>
+      <c r="CX19" s="77"/>
+      <c r="CY19" s="77"/>
+      <c r="CZ19" s="77"/>
+      <c r="DA19" s="77"/>
+      <c r="DB19" s="77"/>
+      <c r="DC19" s="77"/>
+      <c r="DD19" s="77"/>
+      <c r="DE19" s="77"/>
+      <c r="DF19" s="77"/>
+      <c r="DG19" s="77"/>
+      <c r="DH19" s="77"/>
+      <c r="DI19" s="77"/>
+      <c r="DJ19" s="77"/>
+      <c r="DK19" s="77"/>
+      <c r="DL19" s="77"/>
+      <c r="DM19" s="77"/>
+      <c r="DN19" s="77"/>
+      <c r="DO19" s="77"/>
+      <c r="DP19" s="77"/>
+      <c r="DQ19" s="77"/>
+      <c r="DR19" s="77"/>
+      <c r="DS19" s="77"/>
+      <c r="DT19" s="77"/>
+      <c r="DU19" s="77"/>
+      <c r="DV19" s="77"/>
+      <c r="DW19" s="77"/>
+      <c r="DX19" s="77"/>
+      <c r="DY19" s="77"/>
+      <c r="DZ19" s="77"/>
+      <c r="EA19" s="77"/>
+      <c r="EB19" s="77"/>
+      <c r="EC19" s="77"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="74" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="74" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" s="74" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="75" t="s">
-        <v>96</v>
-      </c>
-      <c r="G16" s="75" t="s">
-        <v>118</v>
-      </c>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="78"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="78"/>
-      <c r="N16" s="78"/>
-      <c r="O16" s="78"/>
-      <c r="P16" s="78"/>
-      <c r="Q16" s="78"/>
-      <c r="R16" s="78"/>
-      <c r="S16" s="78"/>
-      <c r="T16" s="78"/>
-      <c r="U16" s="78"/>
-      <c r="V16" s="78"/>
-      <c r="W16" s="78"/>
-      <c r="X16" s="78"/>
-      <c r="Y16" s="78"/>
-      <c r="Z16" s="78"/>
-      <c r="AA16" s="78"/>
-      <c r="AB16" s="78"/>
-      <c r="AC16" s="78"/>
-      <c r="AD16" s="78"/>
-      <c r="AE16" s="78"/>
-      <c r="AF16" s="78"/>
-      <c r="AG16" s="78"/>
-      <c r="AH16" s="78"/>
-      <c r="AI16" s="78"/>
-      <c r="AJ16" s="78"/>
-      <c r="AK16" s="78"/>
-      <c r="AL16" s="78"/>
-      <c r="AM16" s="78"/>
-      <c r="AN16" s="78"/>
-      <c r="AO16" s="78"/>
-      <c r="AP16" s="78"/>
-      <c r="AQ16" s="78"/>
-      <c r="AR16" s="78"/>
-      <c r="AS16" s="78"/>
-      <c r="AT16" s="78"/>
-      <c r="AU16" s="78"/>
-      <c r="AV16" s="78"/>
-      <c r="AW16" s="78"/>
-      <c r="AX16" s="78"/>
-      <c r="AY16" s="78"/>
-      <c r="AZ16" s="78"/>
-      <c r="BA16" s="78"/>
-      <c r="BB16" s="78"/>
-      <c r="BC16" s="78"/>
-      <c r="BD16" s="78"/>
-      <c r="BE16" s="78"/>
-      <c r="BF16" s="78"/>
-      <c r="BG16" s="78"/>
-      <c r="BH16" s="78"/>
-      <c r="BI16" s="78"/>
-      <c r="BJ16" s="78"/>
-      <c r="BK16" s="78"/>
-      <c r="BL16" s="78"/>
-      <c r="BM16" s="78"/>
-      <c r="BN16" s="78"/>
-      <c r="BO16" s="78"/>
-      <c r="BP16" s="78"/>
-      <c r="BQ16" s="78"/>
-      <c r="BR16" s="78"/>
-      <c r="BS16" s="78"/>
-      <c r="BT16" s="78"/>
-      <c r="BU16" s="78"/>
-      <c r="BV16" s="78"/>
-      <c r="BW16" s="78"/>
-      <c r="BX16" s="78"/>
-      <c r="BY16" s="78"/>
-      <c r="BZ16" s="78"/>
-      <c r="CA16" s="78"/>
-      <c r="CB16" s="78"/>
-      <c r="CC16" s="78"/>
-      <c r="CD16" s="78"/>
-      <c r="CE16" s="78"/>
-      <c r="CF16" s="78"/>
-      <c r="CG16" s="78"/>
-      <c r="CH16" s="78"/>
-      <c r="CI16" s="78"/>
-      <c r="CJ16" s="78"/>
-      <c r="CK16" s="78"/>
-      <c r="CL16" s="78"/>
-      <c r="CM16" s="78"/>
-      <c r="CN16" s="78"/>
-      <c r="CO16" s="78"/>
-      <c r="CP16" s="78"/>
-      <c r="CQ16" s="78"/>
-      <c r="CR16" s="78"/>
-      <c r="CS16" s="78"/>
-      <c r="CT16" s="78"/>
-      <c r="CU16" s="78"/>
-      <c r="CV16" s="78"/>
-      <c r="CW16" s="78"/>
-      <c r="CX16" s="78"/>
-      <c r="CY16" s="78"/>
-      <c r="CZ16" s="78"/>
-      <c r="DA16" s="78"/>
-      <c r="DB16" s="78"/>
-      <c r="DC16" s="78"/>
-      <c r="DD16" s="78"/>
-      <c r="DE16" s="78"/>
-      <c r="DF16" s="78"/>
-      <c r="DG16" s="78"/>
-      <c r="DH16" s="78"/>
-      <c r="DI16" s="78"/>
-      <c r="DJ16" s="78"/>
-      <c r="DK16" s="78"/>
-      <c r="DL16" s="78"/>
-      <c r="DM16" s="78"/>
-      <c r="DN16" s="78"/>
-      <c r="DO16" s="78"/>
-      <c r="DP16" s="78"/>
-      <c r="DQ16" s="78"/>
-      <c r="DR16" s="78"/>
-      <c r="DS16" s="78"/>
-      <c r="DT16" s="78"/>
-      <c r="DU16" s="78"/>
-      <c r="DV16" s="78"/>
-      <c r="DW16" s="78"/>
-      <c r="DX16" s="78"/>
-      <c r="DY16" s="78"/>
-      <c r="DZ16" s="78"/>
-      <c r="EA16" s="78"/>
-      <c r="EB16" s="78"/>
-      <c r="EC16" s="78"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="75" t="s">
-        <v>119</v>
-      </c>
-      <c r="B17" s="75" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" s="75" t="s">
-        <v>121</v>
-      </c>
-      <c r="D17" s="75" t="s">
-        <v>122</v>
-      </c>
-      <c r="E17" s="75" t="s">
-        <v>109</v>
-      </c>
-      <c r="F17" s="75" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="75" t="s">
-        <v>123</v>
-      </c>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="78"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="78"/>
-      <c r="N17" s="78"/>
-      <c r="O17" s="78"/>
-      <c r="P17" s="78"/>
-      <c r="Q17" s="78"/>
-      <c r="R17" s="78"/>
-      <c r="S17" s="78"/>
-      <c r="T17" s="78"/>
-      <c r="U17" s="78"/>
-      <c r="V17" s="78"/>
-      <c r="W17" s="78"/>
-      <c r="X17" s="78"/>
-      <c r="Y17" s="78"/>
-      <c r="Z17" s="78"/>
-      <c r="AA17" s="78"/>
-      <c r="AB17" s="78"/>
-      <c r="AC17" s="78"/>
-      <c r="AD17" s="78"/>
-      <c r="AE17" s="78"/>
-      <c r="AF17" s="78"/>
-      <c r="AG17" s="78"/>
-      <c r="AH17" s="78"/>
-      <c r="AI17" s="78"/>
-      <c r="AJ17" s="78"/>
-      <c r="AK17" s="78"/>
-      <c r="AL17" s="78"/>
-      <c r="AM17" s="78"/>
-      <c r="AN17" s="78"/>
-      <c r="AO17" s="78"/>
-      <c r="AP17" s="78"/>
-      <c r="AQ17" s="78"/>
-      <c r="AR17" s="78"/>
-      <c r="AS17" s="78"/>
-      <c r="AT17" s="78"/>
-      <c r="AU17" s="78"/>
-      <c r="AV17" s="78"/>
-      <c r="AW17" s="78"/>
-      <c r="AX17" s="78"/>
-      <c r="AY17" s="78"/>
-      <c r="AZ17" s="78"/>
-      <c r="BA17" s="78"/>
-      <c r="BB17" s="78"/>
-      <c r="BC17" s="78"/>
-      <c r="BD17" s="78"/>
-      <c r="BE17" s="78"/>
-      <c r="BF17" s="78"/>
-      <c r="BG17" s="78"/>
-      <c r="BH17" s="78"/>
-      <c r="BI17" s="78"/>
-      <c r="BJ17" s="78"/>
-      <c r="BK17" s="78"/>
-      <c r="BL17" s="78"/>
-      <c r="BM17" s="78"/>
-      <c r="BN17" s="78"/>
-      <c r="BO17" s="78"/>
-      <c r="BP17" s="78"/>
-      <c r="BQ17" s="78"/>
-      <c r="BR17" s="78"/>
-      <c r="BS17" s="78"/>
-      <c r="BT17" s="78"/>
-      <c r="BU17" s="78"/>
-      <c r="BV17" s="78"/>
-      <c r="BW17" s="78"/>
-      <c r="BX17" s="78"/>
-      <c r="BY17" s="78"/>
-      <c r="BZ17" s="78"/>
-      <c r="CA17" s="78"/>
-      <c r="CB17" s="78"/>
-      <c r="CC17" s="78"/>
-      <c r="CD17" s="78"/>
-      <c r="CE17" s="78"/>
-      <c r="CF17" s="78"/>
-      <c r="CG17" s="78"/>
-      <c r="CH17" s="78"/>
-      <c r="CI17" s="78"/>
-      <c r="CJ17" s="78"/>
-      <c r="CK17" s="78"/>
-      <c r="CL17" s="78"/>
-      <c r="CM17" s="78"/>
-      <c r="CN17" s="78"/>
-      <c r="CO17" s="78"/>
-      <c r="CP17" s="78"/>
-      <c r="CQ17" s="78"/>
-      <c r="CR17" s="78"/>
-      <c r="CS17" s="78"/>
-      <c r="CT17" s="78"/>
-      <c r="CU17" s="78"/>
-      <c r="CV17" s="78"/>
-      <c r="CW17" s="78"/>
-      <c r="CX17" s="78"/>
-      <c r="CY17" s="78"/>
-      <c r="CZ17" s="78"/>
-      <c r="DA17" s="78"/>
-      <c r="DB17" s="78"/>
-      <c r="DC17" s="78"/>
-      <c r="DD17" s="78"/>
-      <c r="DE17" s="78"/>
-      <c r="DF17" s="78"/>
-      <c r="DG17" s="78"/>
-      <c r="DH17" s="78"/>
-      <c r="DI17" s="78"/>
-      <c r="DJ17" s="78"/>
-      <c r="DK17" s="78"/>
-      <c r="DL17" s="78"/>
-      <c r="DM17" s="78"/>
-      <c r="DN17" s="78"/>
-      <c r="DO17" s="78"/>
-      <c r="DP17" s="78"/>
-      <c r="DQ17" s="78"/>
-      <c r="DR17" s="78"/>
-      <c r="DS17" s="78"/>
-      <c r="DT17" s="78"/>
-      <c r="DU17" s="78"/>
-      <c r="DV17" s="78"/>
-      <c r="DW17" s="78"/>
-      <c r="DX17" s="78"/>
-      <c r="DY17" s="78"/>
-      <c r="DZ17" s="78"/>
-      <c r="EA17" s="78"/>
-      <c r="EB17" s="78"/>
-      <c r="EC17" s="78"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="75" t="s">
-        <v>124</v>
-      </c>
-      <c r="B18" s="75" t="s">
-        <v>125</v>
-      </c>
-      <c r="C18" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="D18" s="75" t="s">
-        <v>127</v>
-      </c>
-      <c r="E18" s="75" t="s">
+      <c r="G20" s="74" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="77"/>
+      <c r="Q20" s="77"/>
+      <c r="R20" s="77"/>
+      <c r="S20" s="77"/>
+      <c r="T20" s="77"/>
+      <c r="U20" s="77"/>
+      <c r="V20" s="77"/>
+      <c r="W20" s="77"/>
+      <c r="X20" s="77"/>
+      <c r="Y20" s="77"/>
+      <c r="Z20" s="77"/>
+      <c r="AA20" s="77"/>
+      <c r="AB20" s="77"/>
+      <c r="AC20" s="77"/>
+      <c r="AD20" s="77"/>
+      <c r="AE20" s="77"/>
+      <c r="AF20" s="77"/>
+      <c r="AG20" s="77"/>
+      <c r="AH20" s="77"/>
+      <c r="AI20" s="77"/>
+      <c r="AJ20" s="77"/>
+      <c r="AK20" s="77"/>
+      <c r="AL20" s="77"/>
+      <c r="AM20" s="77"/>
+      <c r="AN20" s="77"/>
+      <c r="AO20" s="77"/>
+      <c r="AP20" s="77"/>
+      <c r="AQ20" s="77"/>
+      <c r="AR20" s="77"/>
+      <c r="AS20" s="77"/>
+      <c r="AT20" s="77"/>
+      <c r="AU20" s="77"/>
+      <c r="AV20" s="77"/>
+      <c r="AW20" s="77"/>
+      <c r="AX20" s="77"/>
+      <c r="AY20" s="77"/>
+      <c r="AZ20" s="77"/>
+      <c r="BA20" s="77"/>
+      <c r="BB20" s="77"/>
+      <c r="BC20" s="77"/>
+      <c r="BD20" s="77"/>
+      <c r="BE20" s="77"/>
+      <c r="BF20" s="77"/>
+      <c r="BG20" s="77"/>
+      <c r="BH20" s="77"/>
+      <c r="BI20" s="77"/>
+      <c r="BJ20" s="77"/>
+      <c r="BK20" s="77"/>
+      <c r="BL20" s="77"/>
+      <c r="BM20" s="77"/>
+      <c r="BN20" s="77"/>
+      <c r="BO20" s="77"/>
+      <c r="BP20" s="77"/>
+      <c r="BQ20" s="77"/>
+      <c r="BR20" s="77"/>
+      <c r="BS20" s="77"/>
+      <c r="BT20" s="77"/>
+      <c r="BU20" s="77"/>
+      <c r="BV20" s="77"/>
+      <c r="BW20" s="77"/>
+      <c r="BX20" s="77"/>
+      <c r="BY20" s="77"/>
+      <c r="BZ20" s="77"/>
+      <c r="CA20" s="77"/>
+      <c r="CB20" s="77"/>
+      <c r="CC20" s="77"/>
+      <c r="CD20" s="77"/>
+      <c r="CE20" s="77"/>
+      <c r="CF20" s="77"/>
+      <c r="CG20" s="77"/>
+      <c r="CH20" s="77"/>
+      <c r="CI20" s="77"/>
+      <c r="CJ20" s="77"/>
+      <c r="CK20" s="77"/>
+      <c r="CL20" s="77"/>
+      <c r="CM20" s="77"/>
+      <c r="CN20" s="77"/>
+      <c r="CO20" s="77"/>
+      <c r="CP20" s="77"/>
+      <c r="CQ20" s="77"/>
+      <c r="CR20" s="77"/>
+      <c r="CS20" s="77"/>
+      <c r="CT20" s="77"/>
+      <c r="CU20" s="77"/>
+      <c r="CV20" s="77"/>
+      <c r="CW20" s="77"/>
+      <c r="CX20" s="77"/>
+      <c r="CY20" s="77"/>
+      <c r="CZ20" s="77"/>
+      <c r="DA20" s="77"/>
+      <c r="DB20" s="77"/>
+      <c r="DC20" s="77"/>
+      <c r="DD20" s="77"/>
+      <c r="DE20" s="77"/>
+      <c r="DF20" s="77"/>
+      <c r="DG20" s="77"/>
+      <c r="DH20" s="77"/>
+      <c r="DI20" s="77"/>
+      <c r="DJ20" s="77"/>
+      <c r="DK20" s="77"/>
+      <c r="DL20" s="77"/>
+      <c r="DM20" s="77"/>
+      <c r="DN20" s="77"/>
+      <c r="DO20" s="77"/>
+      <c r="DP20" s="77"/>
+      <c r="DQ20" s="77"/>
+      <c r="DR20" s="77"/>
+      <c r="DS20" s="77"/>
+      <c r="DT20" s="77"/>
+      <c r="DU20" s="77"/>
+      <c r="DV20" s="77"/>
+      <c r="DW20" s="77"/>
+      <c r="DX20" s="77"/>
+      <c r="DY20" s="77"/>
+      <c r="DZ20" s="77"/>
+      <c r="EA20" s="77"/>
+      <c r="EB20" s="77"/>
+      <c r="EC20" s="77"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="E21" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="F18" s="75" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18" s="75" t="s">
-        <v>128</v>
-      </c>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="78"/>
-      <c r="N18" s="78"/>
-      <c r="O18" s="78"/>
-      <c r="P18" s="78"/>
-      <c r="Q18" s="78"/>
-      <c r="R18" s="78"/>
-      <c r="S18" s="78"/>
-      <c r="T18" s="78"/>
-      <c r="U18" s="78"/>
-      <c r="V18" s="78"/>
-      <c r="W18" s="78"/>
-      <c r="X18" s="78"/>
-      <c r="Y18" s="78"/>
-      <c r="Z18" s="78"/>
-      <c r="AA18" s="78"/>
-      <c r="AB18" s="78"/>
-      <c r="AC18" s="78"/>
-      <c r="AD18" s="78"/>
-      <c r="AE18" s="78"/>
-      <c r="AF18" s="78"/>
-      <c r="AG18" s="78"/>
-      <c r="AH18" s="78"/>
-      <c r="AI18" s="78"/>
-      <c r="AJ18" s="78"/>
-      <c r="AK18" s="78"/>
-      <c r="AL18" s="78"/>
-      <c r="AM18" s="78"/>
-      <c r="AN18" s="78"/>
-      <c r="AO18" s="78"/>
-      <c r="AP18" s="78"/>
-      <c r="AQ18" s="78"/>
-      <c r="AR18" s="78"/>
-      <c r="AS18" s="78"/>
-      <c r="AT18" s="78"/>
-      <c r="AU18" s="78"/>
-      <c r="AV18" s="78"/>
-      <c r="AW18" s="78"/>
-      <c r="AX18" s="78"/>
-      <c r="AY18" s="78"/>
-      <c r="AZ18" s="78"/>
-      <c r="BA18" s="78"/>
-      <c r="BB18" s="78"/>
-      <c r="BC18" s="78"/>
-      <c r="BD18" s="78"/>
-      <c r="BE18" s="78"/>
-      <c r="BF18" s="78"/>
-      <c r="BG18" s="78"/>
-      <c r="BH18" s="78"/>
-      <c r="BI18" s="78"/>
-      <c r="BJ18" s="78"/>
-      <c r="BK18" s="78"/>
-      <c r="BL18" s="78"/>
-      <c r="BM18" s="78"/>
-      <c r="BN18" s="78"/>
-      <c r="BO18" s="78"/>
-      <c r="BP18" s="78"/>
-      <c r="BQ18" s="78"/>
-      <c r="BR18" s="78"/>
-      <c r="BS18" s="78"/>
-      <c r="BT18" s="78"/>
-      <c r="BU18" s="78"/>
-      <c r="BV18" s="78"/>
-      <c r="BW18" s="78"/>
-      <c r="BX18" s="78"/>
-      <c r="BY18" s="78"/>
-      <c r="BZ18" s="78"/>
-      <c r="CA18" s="78"/>
-      <c r="CB18" s="78"/>
-      <c r="CC18" s="78"/>
-      <c r="CD18" s="78"/>
-      <c r="CE18" s="78"/>
-      <c r="CF18" s="78"/>
-      <c r="CG18" s="78"/>
-      <c r="CH18" s="78"/>
-      <c r="CI18" s="78"/>
-      <c r="CJ18" s="78"/>
-      <c r="CK18" s="78"/>
-      <c r="CL18" s="78"/>
-      <c r="CM18" s="78"/>
-      <c r="CN18" s="78"/>
-      <c r="CO18" s="78"/>
-      <c r="CP18" s="78"/>
-      <c r="CQ18" s="78"/>
-      <c r="CR18" s="78"/>
-      <c r="CS18" s="78"/>
-      <c r="CT18" s="78"/>
-      <c r="CU18" s="78"/>
-      <c r="CV18" s="78"/>
-      <c r="CW18" s="78"/>
-      <c r="CX18" s="78"/>
-      <c r="CY18" s="78"/>
-      <c r="CZ18" s="78"/>
-      <c r="DA18" s="78"/>
-      <c r="DB18" s="78"/>
-      <c r="DC18" s="78"/>
-      <c r="DD18" s="78"/>
-      <c r="DE18" s="78"/>
-      <c r="DF18" s="78"/>
-      <c r="DG18" s="78"/>
-      <c r="DH18" s="78"/>
-      <c r="DI18" s="78"/>
-      <c r="DJ18" s="78"/>
-      <c r="DK18" s="78"/>
-      <c r="DL18" s="78"/>
-      <c r="DM18" s="78"/>
-      <c r="DN18" s="78"/>
-      <c r="DO18" s="78"/>
-      <c r="DP18" s="78"/>
-      <c r="DQ18" s="78"/>
-      <c r="DR18" s="78"/>
-      <c r="DS18" s="78"/>
-      <c r="DT18" s="78"/>
-      <c r="DU18" s="78"/>
-      <c r="DV18" s="78"/>
-      <c r="DW18" s="78"/>
-      <c r="DX18" s="78"/>
-      <c r="DY18" s="78"/>
-      <c r="DZ18" s="78"/>
-      <c r="EA18" s="78"/>
-      <c r="EB18" s="78"/>
-      <c r="EC18" s="78"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="75" t="s">
-        <v>129</v>
-      </c>
-      <c r="B19" s="75" t="s">
-        <v>130</v>
-      </c>
-      <c r="C19" s="75" t="s">
-        <v>131</v>
-      </c>
-      <c r="D19" s="75" t="s">
-        <v>132</v>
-      </c>
-      <c r="E19" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="75" t="s">
-        <v>96</v>
-      </c>
-      <c r="G19" s="75" t="s">
-        <v>118</v>
-      </c>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="78"/>
-      <c r="N19" s="78"/>
-      <c r="O19" s="78"/>
-      <c r="P19" s="78"/>
-      <c r="Q19" s="78"/>
-      <c r="R19" s="78"/>
-      <c r="S19" s="78"/>
-      <c r="T19" s="78"/>
-      <c r="U19" s="78"/>
-      <c r="V19" s="78"/>
-      <c r="W19" s="78"/>
-      <c r="X19" s="78"/>
-      <c r="Y19" s="78"/>
-      <c r="Z19" s="78"/>
-      <c r="AA19" s="78"/>
-      <c r="AB19" s="78"/>
-      <c r="AC19" s="78"/>
-      <c r="AD19" s="78"/>
-      <c r="AE19" s="78"/>
-      <c r="AF19" s="78"/>
-      <c r="AG19" s="78"/>
-      <c r="AH19" s="78"/>
-      <c r="AI19" s="78"/>
-      <c r="AJ19" s="78"/>
-      <c r="AK19" s="78"/>
-      <c r="AL19" s="78"/>
-      <c r="AM19" s="78"/>
-      <c r="AN19" s="78"/>
-      <c r="AO19" s="78"/>
-      <c r="AP19" s="78"/>
-      <c r="AQ19" s="78"/>
-      <c r="AR19" s="78"/>
-      <c r="AS19" s="78"/>
-      <c r="AT19" s="78"/>
-      <c r="AU19" s="78"/>
-      <c r="AV19" s="78"/>
-      <c r="AW19" s="78"/>
-      <c r="AX19" s="78"/>
-      <c r="AY19" s="78"/>
-      <c r="AZ19" s="78"/>
-      <c r="BA19" s="78"/>
-      <c r="BB19" s="78"/>
-      <c r="BC19" s="78"/>
-      <c r="BD19" s="78"/>
-      <c r="BE19" s="78"/>
-      <c r="BF19" s="78"/>
-      <c r="BG19" s="78"/>
-      <c r="BH19" s="78"/>
-      <c r="BI19" s="78"/>
-      <c r="BJ19" s="78"/>
-      <c r="BK19" s="78"/>
-      <c r="BL19" s="78"/>
-      <c r="BM19" s="78"/>
-      <c r="BN19" s="78"/>
-      <c r="BO19" s="78"/>
-      <c r="BP19" s="78"/>
-      <c r="BQ19" s="78"/>
-      <c r="BR19" s="78"/>
-      <c r="BS19" s="78"/>
-      <c r="BT19" s="78"/>
-      <c r="BU19" s="78"/>
-      <c r="BV19" s="78"/>
-      <c r="BW19" s="78"/>
-      <c r="BX19" s="78"/>
-      <c r="BY19" s="78"/>
-      <c r="BZ19" s="78"/>
-      <c r="CA19" s="78"/>
-      <c r="CB19" s="78"/>
-      <c r="CC19" s="78"/>
-      <c r="CD19" s="78"/>
-      <c r="CE19" s="78"/>
-      <c r="CF19" s="78"/>
-      <c r="CG19" s="78"/>
-      <c r="CH19" s="78"/>
-      <c r="CI19" s="78"/>
-      <c r="CJ19" s="78"/>
-      <c r="CK19" s="78"/>
-      <c r="CL19" s="78"/>
-      <c r="CM19" s="78"/>
-      <c r="CN19" s="78"/>
-      <c r="CO19" s="78"/>
-      <c r="CP19" s="78"/>
-      <c r="CQ19" s="78"/>
-      <c r="CR19" s="78"/>
-      <c r="CS19" s="78"/>
-      <c r="CT19" s="78"/>
-      <c r="CU19" s="78"/>
-      <c r="CV19" s="78"/>
-      <c r="CW19" s="78"/>
-      <c r="CX19" s="78"/>
-      <c r="CY19" s="78"/>
-      <c r="CZ19" s="78"/>
-      <c r="DA19" s="78"/>
-      <c r="DB19" s="78"/>
-      <c r="DC19" s="78"/>
-      <c r="DD19" s="78"/>
-      <c r="DE19" s="78"/>
-      <c r="DF19" s="78"/>
-      <c r="DG19" s="78"/>
-      <c r="DH19" s="78"/>
-      <c r="DI19" s="78"/>
-      <c r="DJ19" s="78"/>
-      <c r="DK19" s="78"/>
-      <c r="DL19" s="78"/>
-      <c r="DM19" s="78"/>
-      <c r="DN19" s="78"/>
-      <c r="DO19" s="78"/>
-      <c r="DP19" s="78"/>
-      <c r="DQ19" s="78"/>
-      <c r="DR19" s="78"/>
-      <c r="DS19" s="78"/>
-      <c r="DT19" s="78"/>
-      <c r="DU19" s="78"/>
-      <c r="DV19" s="78"/>
-      <c r="DW19" s="78"/>
-      <c r="DX19" s="78"/>
-      <c r="DY19" s="78"/>
-      <c r="DZ19" s="78"/>
-      <c r="EA19" s="78"/>
-      <c r="EB19" s="78"/>
-      <c r="EC19" s="78"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="75" t="s">
-        <v>133</v>
-      </c>
-      <c r="B20" s="75" t="s">
-        <v>134</v>
-      </c>
-      <c r="C20" s="75" t="s">
-        <v>135</v>
-      </c>
-      <c r="D20" s="75" t="s">
-        <v>136</v>
-      </c>
-      <c r="E20" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="F20" s="75" t="s">
-        <v>96</v>
-      </c>
-      <c r="G20" s="75" t="s">
-        <v>105</v>
-      </c>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="78"/>
-      <c r="O20" s="78"/>
-      <c r="P20" s="78"/>
-      <c r="Q20" s="78"/>
-      <c r="R20" s="78"/>
-      <c r="S20" s="78"/>
-      <c r="T20" s="78"/>
-      <c r="U20" s="78"/>
-      <c r="V20" s="78"/>
-      <c r="W20" s="78"/>
-      <c r="X20" s="78"/>
-      <c r="Y20" s="78"/>
-      <c r="Z20" s="78"/>
-      <c r="AA20" s="78"/>
-      <c r="AB20" s="78"/>
-      <c r="AC20" s="78"/>
-      <c r="AD20" s="78"/>
-      <c r="AE20" s="78"/>
-      <c r="AF20" s="78"/>
-      <c r="AG20" s="78"/>
-      <c r="AH20" s="78"/>
-      <c r="AI20" s="78"/>
-      <c r="AJ20" s="78"/>
-      <c r="AK20" s="78"/>
-      <c r="AL20" s="78"/>
-      <c r="AM20" s="78"/>
-      <c r="AN20" s="78"/>
-      <c r="AO20" s="78"/>
-      <c r="AP20" s="78"/>
-      <c r="AQ20" s="78"/>
-      <c r="AR20" s="78"/>
-      <c r="AS20" s="78"/>
-      <c r="AT20" s="78"/>
-      <c r="AU20" s="78"/>
-      <c r="AV20" s="78"/>
-      <c r="AW20" s="78"/>
-      <c r="AX20" s="78"/>
-      <c r="AY20" s="78"/>
-      <c r="AZ20" s="78"/>
-      <c r="BA20" s="78"/>
-      <c r="BB20" s="78"/>
-      <c r="BC20" s="78"/>
-      <c r="BD20" s="78"/>
-      <c r="BE20" s="78"/>
-      <c r="BF20" s="78"/>
-      <c r="BG20" s="78"/>
-      <c r="BH20" s="78"/>
-      <c r="BI20" s="78"/>
-      <c r="BJ20" s="78"/>
-      <c r="BK20" s="78"/>
-      <c r="BL20" s="78"/>
-      <c r="BM20" s="78"/>
-      <c r="BN20" s="78"/>
-      <c r="BO20" s="78"/>
-      <c r="BP20" s="78"/>
-      <c r="BQ20" s="78"/>
-      <c r="BR20" s="78"/>
-      <c r="BS20" s="78"/>
-      <c r="BT20" s="78"/>
-      <c r="BU20" s="78"/>
-      <c r="BV20" s="78"/>
-      <c r="BW20" s="78"/>
-      <c r="BX20" s="78"/>
-      <c r="BY20" s="78"/>
-      <c r="BZ20" s="78"/>
-      <c r="CA20" s="78"/>
-      <c r="CB20" s="78"/>
-      <c r="CC20" s="78"/>
-      <c r="CD20" s="78"/>
-      <c r="CE20" s="78"/>
-      <c r="CF20" s="78"/>
-      <c r="CG20" s="78"/>
-      <c r="CH20" s="78"/>
-      <c r="CI20" s="78"/>
-      <c r="CJ20" s="78"/>
-      <c r="CK20" s="78"/>
-      <c r="CL20" s="78"/>
-      <c r="CM20" s="78"/>
-      <c r="CN20" s="78"/>
-      <c r="CO20" s="78"/>
-      <c r="CP20" s="78"/>
-      <c r="CQ20" s="78"/>
-      <c r="CR20" s="78"/>
-      <c r="CS20" s="78"/>
-      <c r="CT20" s="78"/>
-      <c r="CU20" s="78"/>
-      <c r="CV20" s="78"/>
-      <c r="CW20" s="78"/>
-      <c r="CX20" s="78"/>
-      <c r="CY20" s="78"/>
-      <c r="CZ20" s="78"/>
-      <c r="DA20" s="78"/>
-      <c r="DB20" s="78"/>
-      <c r="DC20" s="78"/>
-      <c r="DD20" s="78"/>
-      <c r="DE20" s="78"/>
-      <c r="DF20" s="78"/>
-      <c r="DG20" s="78"/>
-      <c r="DH20" s="78"/>
-      <c r="DI20" s="78"/>
-      <c r="DJ20" s="78"/>
-      <c r="DK20" s="78"/>
-      <c r="DL20" s="78"/>
-      <c r="DM20" s="78"/>
-      <c r="DN20" s="78"/>
-      <c r="DO20" s="78"/>
-      <c r="DP20" s="78"/>
-      <c r="DQ20" s="78"/>
-      <c r="DR20" s="78"/>
-      <c r="DS20" s="78"/>
-      <c r="DT20" s="78"/>
-      <c r="DU20" s="78"/>
-      <c r="DV20" s="78"/>
-      <c r="DW20" s="78"/>
-      <c r="DX20" s="78"/>
-      <c r="DY20" s="78"/>
-      <c r="DZ20" s="78"/>
-      <c r="EA20" s="78"/>
-      <c r="EB20" s="78"/>
-      <c r="EC20" s="78"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="75" t="s">
-        <v>137</v>
-      </c>
-      <c r="B21" s="75" t="s">
-        <v>138</v>
-      </c>
-      <c r="C21" s="75" t="s">
-        <v>139</v>
-      </c>
-      <c r="D21" s="75" t="s">
-        <v>140</v>
-      </c>
-      <c r="E21" s="75" t="s">
-        <v>109</v>
-      </c>
-      <c r="F21" s="75" t="s">
-        <v>96</v>
-      </c>
-      <c r="G21" s="75" t="s">
-        <v>105</v>
-      </c>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="78"/>
-      <c r="N21" s="78"/>
-      <c r="O21" s="78"/>
-      <c r="P21" s="78"/>
-      <c r="Q21" s="78"/>
-      <c r="R21" s="78"/>
-      <c r="S21" s="78"/>
-      <c r="T21" s="78"/>
-      <c r="U21" s="78"/>
-      <c r="V21" s="78"/>
-      <c r="W21" s="78"/>
-      <c r="X21" s="78"/>
-      <c r="Y21" s="78"/>
-      <c r="Z21" s="78"/>
-      <c r="AA21" s="78"/>
-      <c r="AB21" s="78"/>
-      <c r="AC21" s="78"/>
-      <c r="AD21" s="78"/>
-      <c r="AE21" s="78"/>
-      <c r="AF21" s="78"/>
-      <c r="AG21" s="78"/>
-      <c r="AH21" s="78"/>
-      <c r="AI21" s="78"/>
-      <c r="AJ21" s="78"/>
-      <c r="AK21" s="78"/>
-      <c r="AL21" s="78"/>
-      <c r="AM21" s="78"/>
-      <c r="AN21" s="78"/>
-      <c r="AO21" s="78"/>
-      <c r="AP21" s="78"/>
-      <c r="AQ21" s="78"/>
-      <c r="AR21" s="78"/>
-      <c r="AS21" s="78"/>
-      <c r="AT21" s="78"/>
-      <c r="AU21" s="78"/>
-      <c r="AV21" s="78"/>
-      <c r="AW21" s="78"/>
-      <c r="AX21" s="78"/>
-      <c r="AY21" s="78"/>
-      <c r="AZ21" s="78"/>
-      <c r="BA21" s="78"/>
-      <c r="BB21" s="78"/>
-      <c r="BC21" s="78"/>
-      <c r="BD21" s="78"/>
-      <c r="BE21" s="78"/>
-      <c r="BF21" s="78"/>
-      <c r="BG21" s="78"/>
-      <c r="BH21" s="78"/>
-      <c r="BI21" s="78"/>
-      <c r="BJ21" s="78"/>
-      <c r="BK21" s="78"/>
-      <c r="BL21" s="78"/>
-      <c r="BM21" s="78"/>
-      <c r="BN21" s="78"/>
-      <c r="BO21" s="78"/>
-      <c r="BP21" s="78"/>
-      <c r="BQ21" s="78"/>
-      <c r="BR21" s="78"/>
-      <c r="BS21" s="78"/>
-      <c r="BT21" s="78"/>
-      <c r="BU21" s="78"/>
-      <c r="BV21" s="78"/>
-      <c r="BW21" s="78"/>
-      <c r="BX21" s="78"/>
-      <c r="BY21" s="78"/>
-      <c r="BZ21" s="78"/>
-      <c r="CA21" s="78"/>
-      <c r="CB21" s="78"/>
-      <c r="CC21" s="78"/>
-      <c r="CD21" s="78"/>
-      <c r="CE21" s="78"/>
-      <c r="CF21" s="78"/>
-      <c r="CG21" s="78"/>
-      <c r="CH21" s="78"/>
-      <c r="CI21" s="78"/>
-      <c r="CJ21" s="78"/>
-      <c r="CK21" s="78"/>
-      <c r="CL21" s="78"/>
-      <c r="CM21" s="78"/>
-      <c r="CN21" s="78"/>
-      <c r="CO21" s="78"/>
-      <c r="CP21" s="78"/>
-      <c r="CQ21" s="78"/>
-      <c r="CR21" s="78"/>
-      <c r="CS21" s="78"/>
-      <c r="CT21" s="78"/>
-      <c r="CU21" s="78"/>
-      <c r="CV21" s="78"/>
-      <c r="CW21" s="78"/>
-      <c r="CX21" s="78"/>
-      <c r="CY21" s="78"/>
-      <c r="CZ21" s="78"/>
-      <c r="DA21" s="78"/>
-      <c r="DB21" s="78"/>
-      <c r="DC21" s="78"/>
-      <c r="DD21" s="78"/>
-      <c r="DE21" s="78"/>
-      <c r="DF21" s="78"/>
-      <c r="DG21" s="78"/>
-      <c r="DH21" s="78"/>
-      <c r="DI21" s="78"/>
-      <c r="DJ21" s="78"/>
-      <c r="DK21" s="78"/>
-      <c r="DL21" s="78"/>
-      <c r="DM21" s="78"/>
-      <c r="DN21" s="78"/>
-      <c r="DO21" s="78"/>
-      <c r="DP21" s="78"/>
-      <c r="DQ21" s="78"/>
-      <c r="DR21" s="78"/>
-      <c r="DS21" s="78"/>
-      <c r="DT21" s="78"/>
-      <c r="DU21" s="78"/>
-      <c r="DV21" s="78"/>
-      <c r="DW21" s="78"/>
-      <c r="DX21" s="78"/>
-      <c r="DY21" s="78"/>
-      <c r="DZ21" s="78"/>
-      <c r="EA21" s="78"/>
-      <c r="EB21" s="78"/>
-      <c r="EC21" s="78"/>
+      <c r="G21" s="74" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="77"/>
+      <c r="R21" s="77"/>
+      <c r="S21" s="77"/>
+      <c r="T21" s="77"/>
+      <c r="U21" s="77"/>
+      <c r="V21" s="77"/>
+      <c r="W21" s="77"/>
+      <c r="X21" s="77"/>
+      <c r="Y21" s="77"/>
+      <c r="Z21" s="77"/>
+      <c r="AA21" s="77"/>
+      <c r="AB21" s="77"/>
+      <c r="AC21" s="77"/>
+      <c r="AD21" s="77"/>
+      <c r="AE21" s="77"/>
+      <c r="AF21" s="77"/>
+      <c r="AG21" s="77"/>
+      <c r="AH21" s="77"/>
+      <c r="AI21" s="77"/>
+      <c r="AJ21" s="77"/>
+      <c r="AK21" s="77"/>
+      <c r="AL21" s="77"/>
+      <c r="AM21" s="77"/>
+      <c r="AN21" s="77"/>
+      <c r="AO21" s="77"/>
+      <c r="AP21" s="77"/>
+      <c r="AQ21" s="77"/>
+      <c r="AR21" s="77"/>
+      <c r="AS21" s="77"/>
+      <c r="AT21" s="77"/>
+      <c r="AU21" s="77"/>
+      <c r="AV21" s="77"/>
+      <c r="AW21" s="77"/>
+      <c r="AX21" s="77"/>
+      <c r="AY21" s="77"/>
+      <c r="AZ21" s="77"/>
+      <c r="BA21" s="77"/>
+      <c r="BB21" s="77"/>
+      <c r="BC21" s="77"/>
+      <c r="BD21" s="77"/>
+      <c r="BE21" s="77"/>
+      <c r="BF21" s="77"/>
+      <c r="BG21" s="77"/>
+      <c r="BH21" s="77"/>
+      <c r="BI21" s="77"/>
+      <c r="BJ21" s="77"/>
+      <c r="BK21" s="77"/>
+      <c r="BL21" s="77"/>
+      <c r="BM21" s="77"/>
+      <c r="BN21" s="77"/>
+      <c r="BO21" s="77"/>
+      <c r="BP21" s="77"/>
+      <c r="BQ21" s="77"/>
+      <c r="BR21" s="77"/>
+      <c r="BS21" s="77"/>
+      <c r="BT21" s="77"/>
+      <c r="BU21" s="77"/>
+      <c r="BV21" s="77"/>
+      <c r="BW21" s="77"/>
+      <c r="BX21" s="77"/>
+      <c r="BY21" s="77"/>
+      <c r="BZ21" s="77"/>
+      <c r="CA21" s="77"/>
+      <c r="CB21" s="77"/>
+      <c r="CC21" s="77"/>
+      <c r="CD21" s="77"/>
+      <c r="CE21" s="77"/>
+      <c r="CF21" s="77"/>
+      <c r="CG21" s="77"/>
+      <c r="CH21" s="77"/>
+      <c r="CI21" s="77"/>
+      <c r="CJ21" s="77"/>
+      <c r="CK21" s="77"/>
+      <c r="CL21" s="77"/>
+      <c r="CM21" s="77"/>
+      <c r="CN21" s="77"/>
+      <c r="CO21" s="77"/>
+      <c r="CP21" s="77"/>
+      <c r="CQ21" s="77"/>
+      <c r="CR21" s="77"/>
+      <c r="CS21" s="77"/>
+      <c r="CT21" s="77"/>
+      <c r="CU21" s="77"/>
+      <c r="CV21" s="77"/>
+      <c r="CW21" s="77"/>
+      <c r="CX21" s="77"/>
+      <c r="CY21" s="77"/>
+      <c r="CZ21" s="77"/>
+      <c r="DA21" s="77"/>
+      <c r="DB21" s="77"/>
+      <c r="DC21" s="77"/>
+      <c r="DD21" s="77"/>
+      <c r="DE21" s="77"/>
+      <c r="DF21" s="77"/>
+      <c r="DG21" s="77"/>
+      <c r="DH21" s="77"/>
+      <c r="DI21" s="77"/>
+      <c r="DJ21" s="77"/>
+      <c r="DK21" s="77"/>
+      <c r="DL21" s="77"/>
+      <c r="DM21" s="77"/>
+      <c r="DN21" s="77"/>
+      <c r="DO21" s="77"/>
+      <c r="DP21" s="77"/>
+      <c r="DQ21" s="77"/>
+      <c r="DR21" s="77"/>
+      <c r="DS21" s="77"/>
+      <c r="DT21" s="77"/>
+      <c r="DU21" s="77"/>
+      <c r="DV21" s="77"/>
+      <c r="DW21" s="77"/>
+      <c r="DX21" s="77"/>
+      <c r="DY21" s="77"/>
+      <c r="DZ21" s="77"/>
+      <c r="EA21" s="77"/>
+      <c r="EB21" s="77"/>
+      <c r="EC21" s="77"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="79"/>
+      <c r="A22" s="78"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="79"/>
+      <c r="E22" s="78"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -5245,11 +5242,11 @@
       <c r="EC22" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="79"/>
+      <c r="A23" s="78"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="79"/>
+      <c r="E23" s="78"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -5380,11 +5377,11 @@
       <c r="EC23" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="79"/>
+      <c r="A24" s="78"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="79"/>
+      <c r="E24" s="78"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -5532,7 +5529,7 @@
   </sheetPr>
   <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6220,9 +6217,7 @@
       <c r="C22" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="68" t="s">
-        <v>77</v>
-      </c>
+      <c r="D22" s="44"/>
       <c r="E22" s="39">
         <v>3</v>
       </c>
@@ -6248,12 +6243,8 @@
       <c r="B23" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="69" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="69" t="s">
-        <v>77</v>
-      </c>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
       <c r="E23" s="50">
         <v>20</v>
       </c>
@@ -6894,7 +6885,7 @@
   </sheetPr>
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7386,7 +7377,7 @@
       <c r="R15" s="42"/>
       <c r="S15" s="42"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="28.5">
       <c r="A16" s="35">
         <v>14</v>
       </c>
@@ -7448,7 +7439,7 @@
       <c r="R17" s="46"/>
       <c r="S17" s="46"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="84">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="29.25">
       <c r="A18" s="47">
         <v>16</v>
       </c>
@@ -7479,7 +7470,7 @@
       <c r="R18" s="53"/>
       <c r="S18" s="53"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="32.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -7510,7 +7501,7 @@
       <c r="R19" s="13"/>
       <c r="S19" s="13"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="30.75">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -7645,7 +7636,7 @@
         <f>R22-(E21/14)</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
@@ -7666,7 +7657,7 @@
       <c r="R23" s="13"/>
       <c r="S23" s="13"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
@@ -7687,7 +7678,7 @@
       <c r="R24" s="13"/>
       <c r="S24" s="13"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
@@ -7708,7 +7699,7 @@
       <c r="R25" s="13"/>
       <c r="S25" s="13"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
@@ -7729,7 +7720,7 @@
       <c r="R26" s="13"/>
       <c r="S26" s="13"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
@@ -7758,7 +7749,7 @@
         <f>SUM(L11:L19)</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
